--- a/TestSet21.xlsx
+++ b/TestSet21.xlsx
@@ -648,7 +648,7 @@
       <pane xSplit="5" ySplit="64" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
-      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4421,7 +4421,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8892</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8892</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6396</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6396</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7532</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7532</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1212</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1212</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5731</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5731</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5892</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5892</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -5867,7 +5867,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="18000"/>
+        <filter val="24000"/>
       </filters>
     </filterColumn>
     <sortState ref="A5:T76">

--- a/TestSet21.xlsx
+++ b/TestSet21.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$S$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$T$88</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="49">
   <si>
     <t>SCGD</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</t>
+  </si>
+  <si>
+    <t>OOS Infer Dataset</t>
   </si>
 </sst>
 </file>
@@ -642,13 +645,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="64" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="64" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
-      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,61 +666,65 @@
     <col min="8" max="8" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" customWidth="1"/>
-    <col min="12" max="16" width="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" customWidth="1"/>
+    <col min="13" max="17" width="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K3" s="4"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -748,44 +755,44 @@
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="str">
-        <f>RIGHT(K2,LEN(K2)-26)</f>
+      <c r="L4" s="2" t="str">
+        <f>RIGHT(L2,LEN(L2)-26)</f>
         <v>i0.xml</v>
       </c>
-      <c r="L4" s="2" t="str">
-        <f t="shared" ref="L4:S4" si="0">RIGHT(L2,LEN(L2)-26)</f>
+      <c r="M4" s="2" t="str">
+        <f t="shared" ref="M4:T4" si="0">RIGHT(M2,LEN(M2)-26)</f>
         <v>i1.xml</v>
       </c>
-      <c r="M4" s="2" t="str">
+      <c r="N4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i2.xml</v>
       </c>
-      <c r="N4" s="2" t="str">
+      <c r="O4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0a.xml</v>
       </c>
-      <c r="O4" s="2" t="str">
+      <c r="P4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0b.xml</v>
       </c>
-      <c r="P4" s="2" t="str">
+      <c r="Q4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0c.xml</v>
       </c>
-      <c r="Q4" s="2" t="str">
+      <c r="R4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0a-bsc1.xml</v>
       </c>
-      <c r="R4" s="2" t="str">
+      <c r="S4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0b-bsc1.xml</v>
       </c>
-      <c r="S4" s="2" t="str">
+      <c r="T4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0c-bsc1.xml</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6556</v>
       </c>
@@ -821,32 +828,32 @@
         <f t="shared" ref="J5:J36" si="5">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" ref="K5:P20" si="6">"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;K$2&amp;" "&amp;$A5</f>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:Q20" si="6">"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;L$2&amp;" "&amp;$A5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6556</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6556</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6556</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6556</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6556</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6556</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9048</v>
       </c>
@@ -882,32 +889,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9048</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9048</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9048</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9048</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9048</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9048</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5368</v>
       </c>
@@ -943,35 +950,36 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" s="13"/>
+      <c r="L7" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5368</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5368</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5368</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5368</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5368</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5368</v>
       </c>
-      <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
-    </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1624</v>
       </c>
@@ -1007,32 +1015,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1624</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1624</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1624</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1624</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1624</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1624</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9368</v>
       </c>
@@ -1068,32 +1076,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9368</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9368</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9368</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9368</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9368</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9368</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3400</v>
       </c>
@@ -1129,32 +1137,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3400</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3400</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3400</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3400</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3400</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9372</v>
       </c>
@@ -1190,32 +1198,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9372</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9372</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9372</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9372</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9372</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9372</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3576</v>
       </c>
@@ -1251,32 +1259,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3576</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3576</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3576</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3576</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3576</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3576</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1980</v>
       </c>
@@ -1312,32 +1320,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1980</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1980</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1980</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1980</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1980</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1980</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8052</v>
       </c>
@@ -1373,32 +1381,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8052</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8052</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8052</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8052</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8052</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8052</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5532</v>
       </c>
@@ -1434,32 +1442,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5532</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5532</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5532</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5532</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5532</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5532</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>6348</v>
       </c>
@@ -1495,32 +1503,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6348</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6348</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6348</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6348</v>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6348</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6348</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9488</v>
       </c>
@@ -1556,32 +1564,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9488</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9488</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9488</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9488</v>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9488</v>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9488</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4616</v>
       </c>
@@ -1617,32 +1625,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4616</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4616</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4616</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4616</v>
       </c>
-      <c r="O18" t="str">
+      <c r="P18" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4616</v>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4616</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7656</v>
       </c>
@@ -1678,32 +1686,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7656</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7656</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7656</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7656</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7656</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7656</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5340</v>
       </c>
@@ -1739,32 +1747,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5340</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5340</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5340</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5340</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5340</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f t="shared" si="6"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5340</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9312</v>
       </c>
@@ -1800,32 +1808,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" ref="K21:P36" si="7">"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;K$2&amp;" "&amp;$A21</f>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:Q36" si="7">"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;L$2&amp;" "&amp;$A21</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9312</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9312</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9312</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9312</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9312</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9312</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3144</v>
       </c>
@@ -1861,32 +1869,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3144</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3144</v>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3144</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3144</v>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3144</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3144</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7688</v>
       </c>
@@ -1922,32 +1930,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7688</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7688</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7688</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7688</v>
       </c>
-      <c r="O23" t="str">
+      <c r="P23" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7688</v>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7688</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3780</v>
       </c>
@@ -1983,32 +1991,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3780</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3780</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3780</v>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3780</v>
       </c>
-      <c r="O24" t="str">
+      <c r="P24" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3780</v>
       </c>
-      <c r="P24" t="str">
+      <c r="Q24" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3780</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>796</v>
       </c>
@@ -2044,32 +2052,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 796</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 796</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 796</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 796</v>
       </c>
-      <c r="O25" t="str">
+      <c r="P25" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 796</v>
       </c>
-      <c r="P25" t="str">
+      <c r="Q25" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 796</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1340</v>
       </c>
@@ -2105,32 +2113,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1340</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1340</v>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1340</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O26" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1340</v>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1340</v>
       </c>
-      <c r="P26" t="str">
+      <c r="Q26" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1340</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8896</v>
       </c>
@@ -2166,32 +2174,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8896</v>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8896</v>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8896</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O27" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8896</v>
       </c>
-      <c r="O27" t="str">
+      <c r="P27" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8896</v>
       </c>
-      <c r="P27" t="str">
+      <c r="Q27" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8896</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5656</v>
       </c>
@@ -2227,32 +2235,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5656</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5656</v>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5656</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O28" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5656</v>
       </c>
-      <c r="O28" t="str">
+      <c r="P28" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5656</v>
       </c>
-      <c r="P28" t="str">
+      <c r="Q28" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5656</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>2416</v>
       </c>
@@ -2288,32 +2296,33 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K29" s="13"/>
+      <c r="L29" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 2416</v>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 2416</v>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 2416</v>
       </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 2416</v>
       </c>
-      <c r="O29" t="str">
+      <c r="P29" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 2416</v>
       </c>
-      <c r="P29" t="str">
+      <c r="Q29" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2416</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>4696</v>
       </c>
@@ -2349,32 +2358,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4696</v>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4696</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4696</v>
       </c>
-      <c r="N30" t="str">
+      <c r="O30" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4696</v>
       </c>
-      <c r="O30" t="str">
+      <c r="P30" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4696</v>
       </c>
-      <c r="P30" t="str">
+      <c r="Q30" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4696</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>40</v>
       </c>
@@ -2410,32 +2419,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
       </c>
-      <c r="N31" t="str">
+      <c r="O31" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
       </c>
-      <c r="P31" t="str">
+      <c r="Q31" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7252</v>
       </c>
@@ -2471,32 +2480,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7252</v>
       </c>
-      <c r="L32" t="str">
+      <c r="M32" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7252</v>
       </c>
-      <c r="M32" t="str">
+      <c r="N32" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7252</v>
       </c>
-      <c r="N32" t="str">
+      <c r="O32" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7252</v>
       </c>
-      <c r="O32" t="str">
+      <c r="P32" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7252</v>
       </c>
-      <c r="P32" t="str">
+      <c r="Q32" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7252</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4880</v>
       </c>
@@ -2532,32 +2541,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4880</v>
       </c>
-      <c r="L33" t="str">
+      <c r="M33" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4880</v>
       </c>
-      <c r="M33" t="str">
+      <c r="N33" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4880</v>
       </c>
-      <c r="N33" t="str">
+      <c r="O33" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4880</v>
       </c>
-      <c r="O33" t="str">
+      <c r="P33" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4880</v>
       </c>
-      <c r="P33" t="str">
+      <c r="Q33" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4880</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>40</v>
       </c>
@@ -2593,32 +2602,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
       </c>
-      <c r="L34" t="str">
+      <c r="M34" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
       </c>
-      <c r="M34" t="str">
+      <c r="N34" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
       </c>
-      <c r="N34" t="str">
+      <c r="O34" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
       </c>
-      <c r="O34" t="str">
+      <c r="P34" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
       </c>
-      <c r="P34" t="str">
+      <c r="Q34" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3476</v>
       </c>
@@ -2654,32 +2663,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3476</v>
       </c>
-      <c r="L35" t="str">
+      <c r="M35" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3476</v>
       </c>
-      <c r="M35" t="str">
+      <c r="N35" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3476</v>
       </c>
-      <c r="N35" t="str">
+      <c r="O35" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3476</v>
       </c>
-      <c r="O35" t="str">
+      <c r="P35" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3476</v>
       </c>
-      <c r="P35" t="str">
+      <c r="Q35" t="str">
         <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3476</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -2712,32 +2721,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L36" t="str">
+      <c r="M36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M36" t="str">
+      <c r="N36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N36" t="str">
+      <c r="O36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O36" t="str">
+      <c r="P36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P36" t="str">
+      <c r="Q36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -2770,32 +2779,32 @@
         <f t="shared" ref="J37:J68" si="12">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" ref="K37:P52" si="13">"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;K$2&amp;" "&amp;$A37</f>
+      <c r="L37" t="str">
+        <f t="shared" ref="L37:Q52" si="13">"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;L$2&amp;" "&amp;$A37</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L37" t="str">
+      <c r="M37" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M37" t="str">
+      <c r="N37" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N37" t="str">
+      <c r="O37" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O37" t="str">
+      <c r="P37" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P37" t="str">
+      <c r="Q37" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>3</v>
       </c>
@@ -2828,32 +2837,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L38" t="str">
+      <c r="M38" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M38" t="str">
+      <c r="N38" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N38" t="str">
+      <c r="O38" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O38" t="str">
+      <c r="P38" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P38" t="str">
+      <c r="Q38" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -2886,32 +2895,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L39" t="str">
+      <c r="M39" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M39" t="str">
+      <c r="N39" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N39" t="str">
+      <c r="O39" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O39" t="str">
+      <c r="P39" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P39" t="str">
+      <c r="Q39" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -2944,32 +2953,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L40" t="str">
+      <c r="M40" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M40" t="str">
+      <c r="N40" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N40" t="str">
+      <c r="O40" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O40" t="str">
+      <c r="P40" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P40" t="str">
+      <c r="Q40" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>5764</v>
       </c>
@@ -3005,32 +3014,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5764</v>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5764</v>
       </c>
-      <c r="M41" t="str">
+      <c r="N41" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5764</v>
       </c>
-      <c r="N41" t="str">
+      <c r="O41" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5764</v>
       </c>
-      <c r="O41" t="str">
+      <c r="P41" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5764</v>
       </c>
-      <c r="P41" t="str">
+      <c r="Q41" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5764</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5648</v>
       </c>
@@ -3066,32 +3075,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5648</v>
       </c>
-      <c r="L42" t="str">
+      <c r="M42" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5648</v>
       </c>
-      <c r="M42" t="str">
+      <c r="N42" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5648</v>
       </c>
-      <c r="N42" t="str">
+      <c r="O42" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5648</v>
       </c>
-      <c r="O42" t="str">
+      <c r="P42" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5648</v>
       </c>
-      <c r="P42" t="str">
+      <c r="Q42" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5648</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>6176</v>
       </c>
@@ -3127,35 +3136,36 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K43" s="13"/>
+      <c r="L43" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6176</v>
       </c>
-      <c r="L43" t="str">
+      <c r="M43" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6176</v>
       </c>
-      <c r="M43" t="str">
+      <c r="N43" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6176</v>
       </c>
-      <c r="N43" t="str">
+      <c r="O43" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6176</v>
       </c>
-      <c r="O43" t="str">
+      <c r="P43" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6176</v>
       </c>
-      <c r="P43" t="str">
+      <c r="Q43" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6176</v>
       </c>
-      <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-    </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T43" s="13"/>
+    </row>
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
         <v>0</v>
       </c>
@@ -3188,32 +3198,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L44" t="str">
+      <c r="M44" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M44" t="str">
+      <c r="N44" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N44" t="str">
+      <c r="O44" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O44" t="str">
+      <c r="P44" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P44" t="str">
+      <c r="Q44" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5356</v>
       </c>
@@ -3249,32 +3259,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5356</v>
       </c>
-      <c r="L45" t="str">
+      <c r="M45" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5356</v>
       </c>
-      <c r="M45" t="str">
+      <c r="N45" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5356</v>
       </c>
-      <c r="N45" t="str">
+      <c r="O45" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5356</v>
       </c>
-      <c r="O45" t="str">
+      <c r="P45" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5356</v>
       </c>
-      <c r="P45" t="str">
+      <c r="Q45" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5356</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>956</v>
       </c>
@@ -3310,32 +3320,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 956</v>
       </c>
-      <c r="L46" t="str">
+      <c r="M46" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 956</v>
       </c>
-      <c r="M46" t="str">
+      <c r="N46" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 956</v>
       </c>
-      <c r="N46" t="str">
+      <c r="O46" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 956</v>
       </c>
-      <c r="O46" t="str">
+      <c r="P46" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 956</v>
       </c>
-      <c r="P46" t="str">
+      <c r="Q46" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 956</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8195</v>
       </c>
@@ -3371,32 +3381,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K47" t="str">
+      <c r="L47" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8195</v>
       </c>
-      <c r="L47" t="str">
+      <c r="M47" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8195</v>
       </c>
-      <c r="M47" t="str">
+      <c r="N47" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8195</v>
       </c>
-      <c r="N47" t="str">
+      <c r="O47" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8195</v>
       </c>
-      <c r="O47" t="str">
+      <c r="P47" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8195</v>
       </c>
-      <c r="P47" t="str">
+      <c r="Q47" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8195</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -3429,32 +3439,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L48" t="str">
+      <c r="M48" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M48" t="str">
+      <c r="N48" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N48" t="str">
+      <c r="O48" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O48" t="str">
+      <c r="P48" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P48" t="str">
+      <c r="Q48" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8064</v>
       </c>
@@ -3490,32 +3500,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8064</v>
       </c>
-      <c r="L49" t="str">
+      <c r="M49" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8064</v>
       </c>
-      <c r="M49" t="str">
+      <c r="N49" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8064</v>
       </c>
-      <c r="N49" t="str">
+      <c r="O49" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8064</v>
       </c>
-      <c r="O49" t="str">
+      <c r="P49" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8064</v>
       </c>
-      <c r="P49" t="str">
+      <c r="Q49" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8064</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6435</v>
       </c>
@@ -3551,32 +3561,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6435</v>
       </c>
-      <c r="L50" t="str">
+      <c r="M50" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6435</v>
       </c>
-      <c r="M50" t="str">
+      <c r="N50" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6435</v>
       </c>
-      <c r="N50" t="str">
+      <c r="O50" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6435</v>
       </c>
-      <c r="O50" t="str">
+      <c r="P50" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6435</v>
       </c>
-      <c r="P50" t="str">
+      <c r="Q50" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6435</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7476</v>
       </c>
@@ -3612,32 +3622,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7476</v>
       </c>
-      <c r="L51" t="str">
+      <c r="M51" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7476</v>
       </c>
-      <c r="M51" t="str">
+      <c r="N51" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7476</v>
       </c>
-      <c r="N51" t="str">
+      <c r="O51" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7476</v>
       </c>
-      <c r="O51" t="str">
+      <c r="P51" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7476</v>
       </c>
-      <c r="P51" t="str">
+      <c r="Q51" t="str">
         <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7476</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -3670,32 +3680,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L52" t="str">
+      <c r="M52" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M52" t="str">
+      <c r="N52" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N52" t="str">
+      <c r="O52" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O52" t="str">
+      <c r="P52" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P52" t="str">
+      <c r="Q52" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5212</v>
       </c>
@@ -3731,32 +3741,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K53" t="str">
-        <f t="shared" ref="K53:P68" si="14">"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;K$2&amp;" "&amp;$A53</f>
+      <c r="L53" t="str">
+        <f t="shared" ref="L53:Q68" si="14">"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;L$2&amp;" "&amp;$A53</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5212</v>
       </c>
-      <c r="L53" t="str">
+      <c r="M53" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5212</v>
       </c>
-      <c r="M53" t="str">
+      <c r="N53" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5212</v>
       </c>
-      <c r="N53" t="str">
+      <c r="O53" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5212</v>
       </c>
-      <c r="O53" t="str">
+      <c r="P53" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5212</v>
       </c>
-      <c r="P53" t="str">
+      <c r="Q53" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5212</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8636</v>
       </c>
@@ -3792,32 +3802,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8636</v>
       </c>
-      <c r="L54" t="str">
+      <c r="M54" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8636</v>
       </c>
-      <c r="M54" t="str">
+      <c r="N54" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8636</v>
       </c>
-      <c r="N54" t="str">
+      <c r="O54" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8636</v>
       </c>
-      <c r="O54" t="str">
+      <c r="P54" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8636</v>
       </c>
-      <c r="P54" t="str">
+      <c r="Q54" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8636</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8420</v>
       </c>
@@ -3853,32 +3863,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8420</v>
       </c>
-      <c r="L55" t="str">
+      <c r="M55" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8420</v>
       </c>
-      <c r="M55" t="str">
+      <c r="N55" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8420</v>
       </c>
-      <c r="N55" t="str">
+      <c r="O55" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8420</v>
       </c>
-      <c r="O55" t="str">
+      <c r="P55" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8420</v>
       </c>
-      <c r="P55" t="str">
+      <c r="Q55" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8420</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -3911,32 +3921,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L56" t="str">
+      <c r="M56" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M56" t="str">
+      <c r="N56" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N56" t="str">
+      <c r="O56" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O56" t="str">
+      <c r="P56" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P56" t="str">
+      <c r="Q56" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>5920</v>
       </c>
@@ -3972,32 +3982,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K57" t="str">
+      <c r="L57" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5920</v>
       </c>
-      <c r="L57" t="str">
+      <c r="M57" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5920</v>
       </c>
-      <c r="M57" t="str">
+      <c r="N57" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5920</v>
       </c>
-      <c r="N57" t="str">
+      <c r="O57" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5920</v>
       </c>
-      <c r="O57" t="str">
+      <c r="P57" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5920</v>
       </c>
-      <c r="P57" t="str">
+      <c r="Q57" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5920</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4935</v>
       </c>
@@ -4033,32 +4043,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K58" t="str">
+      <c r="L58" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4935</v>
       </c>
-      <c r="L58" t="str">
+      <c r="M58" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4935</v>
       </c>
-      <c r="M58" t="str">
+      <c r="N58" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4935</v>
       </c>
-      <c r="N58" t="str">
+      <c r="O58" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4935</v>
       </c>
-      <c r="O58" t="str">
+      <c r="P58" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4935</v>
       </c>
-      <c r="P58" t="str">
+      <c r="Q58" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4935</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7360</v>
       </c>
@@ -4094,32 +4104,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K59" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;K$2&amp;" "&amp;$A59</f>
+      <c r="L59" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;L$2&amp;" "&amp;$A59</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7360</v>
       </c>
-      <c r="L59" t="str">
+      <c r="M59" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7360</v>
       </c>
-      <c r="M59" t="str">
+      <c r="N59" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7360</v>
       </c>
-      <c r="N59" t="str">
+      <c r="O59" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7360</v>
       </c>
-      <c r="O59" t="str">
+      <c r="P59" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7360</v>
       </c>
-      <c r="P59" t="str">
+      <c r="Q59" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7360</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2444</v>
       </c>
@@ -4155,32 +4165,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" ref="K60:P75" si="15">"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;K$2&amp;" "&amp;$A60</f>
+      <c r="L60" t="str">
+        <f t="shared" ref="L60:Q75" si="15">"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;L$2&amp;" "&amp;$A60</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 2444</v>
       </c>
-      <c r="L60" t="str">
+      <c r="M60" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 2444</v>
       </c>
-      <c r="M60" t="str">
+      <c r="N60" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 2444</v>
       </c>
-      <c r="N60" t="str">
+      <c r="O60" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 2444</v>
       </c>
-      <c r="O60" t="str">
+      <c r="P60" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 2444</v>
       </c>
-      <c r="P60" t="str">
+      <c r="Q60" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2444</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6307</v>
       </c>
@@ -4216,32 +4226,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K61" t="str">
+      <c r="L61" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6307</v>
       </c>
-      <c r="L61" t="str">
+      <c r="M61" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6307</v>
       </c>
-      <c r="M61" t="str">
+      <c r="N61" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6307</v>
       </c>
-      <c r="N61" t="str">
+      <c r="O61" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6307</v>
       </c>
-      <c r="O61" t="str">
+      <c r="P61" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6307</v>
       </c>
-      <c r="P61" t="str">
+      <c r="Q61" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6307</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6827</v>
       </c>
@@ -4277,32 +4287,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K62" t="str">
+      <c r="L62" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6827</v>
       </c>
-      <c r="L62" t="str">
+      <c r="M62" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6827</v>
       </c>
-      <c r="M62" t="str">
+      <c r="N62" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6827</v>
       </c>
-      <c r="N62" t="str">
+      <c r="O62" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6827</v>
       </c>
-      <c r="O62" t="str">
+      <c r="P62" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6827</v>
       </c>
-      <c r="P62" t="str">
+      <c r="Q62" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6827</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7376</v>
       </c>
@@ -4338,32 +4348,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K63" t="str">
+      <c r="L63" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7376</v>
       </c>
-      <c r="L63" t="str">
+      <c r="M63" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7376</v>
       </c>
-      <c r="M63" t="str">
+      <c r="N63" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7376</v>
       </c>
-      <c r="N63" t="str">
+      <c r="O63" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7376</v>
       </c>
-      <c r="O63" t="str">
+      <c r="P63" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7376</v>
       </c>
-      <c r="P63" t="str">
+      <c r="Q63" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7376</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -4396,32 +4406,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K64" t="str">
+      <c r="L64" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L64" t="str">
+      <c r="M64" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M64" t="str">
+      <c r="N64" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N64" t="str">
+      <c r="O64" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O64" t="str">
+      <c r="P64" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P64" t="str">
+      <c r="Q64" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8892</v>
       </c>
@@ -4457,32 +4467,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K65" t="str">
+      <c r="L65" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8892</v>
       </c>
-      <c r="L65" t="str">
+      <c r="M65" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8892</v>
       </c>
-      <c r="M65" t="str">
+      <c r="N65" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8892</v>
       </c>
-      <c r="N65" t="str">
+      <c r="O65" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8892</v>
       </c>
-      <c r="O65" t="str">
+      <c r="P65" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8892</v>
       </c>
-      <c r="P65" t="str">
+      <c r="Q65" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8892</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6396</v>
       </c>
@@ -4518,32 +4528,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K66" t="str">
+      <c r="L66" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6396</v>
       </c>
-      <c r="L66" t="str">
+      <c r="M66" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6396</v>
       </c>
-      <c r="M66" t="str">
+      <c r="N66" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6396</v>
       </c>
-      <c r="N66" t="str">
+      <c r="O66" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6396</v>
       </c>
-      <c r="O66" t="str">
+      <c r="P66" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6396</v>
       </c>
-      <c r="P66" t="str">
+      <c r="Q66" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6396</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7532</v>
       </c>
@@ -4579,32 +4589,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K67" t="str">
+      <c r="L67" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7532</v>
       </c>
-      <c r="L67" t="str">
+      <c r="M67" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7532</v>
       </c>
-      <c r="M67" t="str">
+      <c r="N67" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7532</v>
       </c>
-      <c r="N67" t="str">
+      <c r="O67" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7532</v>
       </c>
-      <c r="O67" t="str">
+      <c r="P67" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7532</v>
       </c>
-      <c r="P67" t="str">
+      <c r="Q67" t="str">
         <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7532</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -4637,32 +4647,32 @@
         <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K68" t="str">
+      <c r="L68" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L68" t="str">
+      <c r="M68" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M68" t="str">
+      <c r="N68" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N68" t="str">
+      <c r="O68" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O68" t="str">
+      <c r="P68" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P68" t="str">
+      <c r="Q68" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1212</v>
       </c>
@@ -4698,32 +4708,32 @@
         <f t="shared" ref="J69:J88" si="20">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K69" t="str">
+      <c r="L69" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1212</v>
       </c>
-      <c r="L69" t="str">
+      <c r="M69" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1212</v>
       </c>
-      <c r="M69" t="str">
+      <c r="N69" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1212</v>
       </c>
-      <c r="N69" t="str">
+      <c r="O69" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1212</v>
       </c>
-      <c r="O69" t="str">
+      <c r="P69" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1212</v>
       </c>
-      <c r="P69" t="str">
+      <c r="Q69" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1212</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5731</v>
       </c>
@@ -4759,32 +4769,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K70" t="str">
+      <c r="L70" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5731</v>
       </c>
-      <c r="L70" t="str">
+      <c r="M70" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5731</v>
       </c>
-      <c r="M70" t="str">
+      <c r="N70" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5731</v>
       </c>
-      <c r="N70" t="str">
+      <c r="O70" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5731</v>
       </c>
-      <c r="O70" t="str">
+      <c r="P70" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5731</v>
       </c>
-      <c r="P70" t="str">
+      <c r="Q70" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5731</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5892</v>
       </c>
@@ -4820,32 +4830,35 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K71" t="str">
+      <c r="L71" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5892</v>
       </c>
-      <c r="L71" t="str">
+      <c r="M71" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5892</v>
       </c>
-      <c r="M71" t="str">
+      <c r="N71" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5892</v>
       </c>
-      <c r="N71" t="str">
+      <c r="O71" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5892</v>
       </c>
-      <c r="O71" t="str">
+      <c r="P71" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5892</v>
       </c>
-      <c r="P71" t="str">
+      <c r="Q71" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5892</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>6092</v>
+      </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -4878,32 +4891,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
-      </c>
       <c r="L72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6092</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6092</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6092</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6092</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6092</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6092</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>8500</v>
       </c>
@@ -4939,35 +4952,36 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K73" t="str">
+      <c r="K73" s="13"/>
+      <c r="L73" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8500</v>
       </c>
-      <c r="L73" t="str">
+      <c r="M73" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8500</v>
       </c>
-      <c r="M73" t="str">
+      <c r="N73" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8500</v>
       </c>
-      <c r="N73" t="str">
+      <c r="O73" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8500</v>
       </c>
-      <c r="O73" t="str">
+      <c r="P73" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8500</v>
       </c>
-      <c r="P73" t="str">
+      <c r="Q73" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8500</v>
       </c>
-      <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
-    </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T73" s="13"/>
+    </row>
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>5304</v>
       </c>
@@ -5003,32 +5017,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K74" t="str">
+      <c r="L74" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5304</v>
       </c>
-      <c r="L74" t="str">
+      <c r="M74" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5304</v>
       </c>
-      <c r="M74" t="str">
+      <c r="N74" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5304</v>
       </c>
-      <c r="N74" t="str">
+      <c r="O74" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5304</v>
       </c>
-      <c r="O74" t="str">
+      <c r="P74" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5304</v>
       </c>
-      <c r="P74" t="str">
+      <c r="Q74" t="str">
         <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5304</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -5061,32 +5075,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K75" t="str">
+      <c r="L75" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L75" t="str">
+      <c r="M75" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M75" t="str">
+      <c r="N75" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N75" t="str">
+      <c r="O75" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O75" t="str">
+      <c r="P75" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P75" t="str">
+      <c r="Q75" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -5119,32 +5133,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K76" t="str">
-        <f t="shared" ref="K76:P88" si="21">"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;K$2&amp;" "&amp;$A76</f>
+      <c r="L76" t="str">
+        <f t="shared" ref="L76:Q88" si="21">"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;L$2&amp;" "&amp;$A76</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L76" t="str">
+      <c r="M76" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M76" t="str">
+      <c r="N76" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N76" t="str">
+      <c r="O76" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O76" t="str">
+      <c r="P76" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P76" t="str">
+      <c r="Q76" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>5776</v>
       </c>
@@ -5180,32 +5194,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K77" t="str">
+      <c r="L77" t="str">
         <f t="shared" si="21"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5776</v>
       </c>
-      <c r="L77" t="str">
+      <c r="M77" t="str">
         <f t="shared" si="21"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5776</v>
       </c>
-      <c r="M77" t="str">
+      <c r="N77" t="str">
         <f t="shared" si="21"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5776</v>
       </c>
-      <c r="N77" t="str">
+      <c r="O77" t="str">
         <f t="shared" si="21"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5776</v>
       </c>
-      <c r="O77" t="str">
+      <c r="P77" t="str">
         <f t="shared" si="21"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5776</v>
       </c>
-      <c r="P77" t="str">
+      <c r="Q77" t="str">
         <f t="shared" si="21"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5776</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -5238,32 +5252,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K78" t="str">
+      <c r="L78" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L78" t="str">
+      <c r="M78" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M78" t="str">
+      <c r="N78" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N78" t="str">
+      <c r="O78" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O78" t="str">
+      <c r="P78" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P78" t="str">
+      <c r="Q78" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -5296,32 +5310,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K79" t="str">
+      <c r="L79" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L79" t="str">
+      <c r="M79" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M79" t="str">
+      <c r="N79" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N79" t="str">
+      <c r="O79" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O79" t="str">
+      <c r="P79" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P79" t="str">
+      <c r="Q79" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -5354,32 +5368,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K80" t="str">
+      <c r="L80" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L80" t="str">
+      <c r="M80" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M80" t="str">
+      <c r="N80" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N80" t="str">
+      <c r="O80" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O80" t="str">
+      <c r="P80" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P80" t="str">
+      <c r="Q80" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -5412,32 +5426,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K81" t="str">
+      <c r="L81" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L81" t="str">
+      <c r="M81" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M81" t="str">
+      <c r="N81" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N81" t="str">
+      <c r="O81" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O81" t="str">
+      <c r="P81" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P81" t="str">
+      <c r="Q81" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -5470,32 +5484,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K82" t="str">
+      <c r="L82" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L82" t="str">
+      <c r="M82" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M82" t="str">
+      <c r="N82" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N82" t="str">
+      <c r="O82" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O82" t="str">
+      <c r="P82" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P82" t="str">
+      <c r="Q82" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -5528,32 +5542,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K83" t="str">
+      <c r="L83" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L83" t="str">
+      <c r="M83" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M83" t="str">
+      <c r="N83" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N83" t="str">
+      <c r="O83" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O83" t="str">
+      <c r="P83" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P83" t="str">
+      <c r="Q83" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -5586,32 +5600,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K84" t="str">
+      <c r="L84" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L84" t="str">
+      <c r="M84" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M84" t="str">
+      <c r="N84" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N84" t="str">
+      <c r="O84" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O84" t="str">
+      <c r="P84" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P84" t="str">
+      <c r="Q84" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -5644,32 +5658,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K85" t="str">
+      <c r="L85" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L85" t="str">
+      <c r="M85" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M85" t="str">
+      <c r="N85" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N85" t="str">
+      <c r="O85" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O85" t="str">
+      <c r="P85" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P85" t="str">
+      <c r="Q85" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -5702,32 +5716,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K86" t="str">
+      <c r="L86" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L86" t="str">
+      <c r="M86" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M86" t="str">
+      <c r="N86" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N86" t="str">
+      <c r="O86" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O86" t="str">
+      <c r="P86" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P86" t="str">
+      <c r="Q86" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -5760,32 +5774,32 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K87" t="str">
+      <c r="L87" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L87" t="str">
+      <c r="M87" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M87" t="str">
+      <c r="N87" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N87" t="str">
+      <c r="O87" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O87" t="str">
+      <c r="P87" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P87" t="str">
+      <c r="Q87" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="88" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -5818,64 +5832,58 @@
         <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K88" t="str">
+      <c r="L88" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L88" t="str">
+      <c r="M88" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M88" t="str">
+      <c r="N88" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N88" t="str">
+      <c r="O88" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O88" t="str">
+      <c r="P88" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P88" t="str">
+      <c r="Q88" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P91" t="s">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q91" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P93" t="s">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q93" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:S88">
+  <autoFilter ref="A4:T88">
     <filterColumn colId="1">
       <filters>
         <filter val="SCGD"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="2">
+    <filterColumn colId="3">
       <filters>
-        <filter val="1-1"/>
+        <filter val="06000"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
+    <filterColumn colId="4">
       <filters>
-        <filter val="18000"/>
+        <filter val="200"/>
       </filters>
     </filterColumn>
-    <sortState ref="A5:T76">
-      <sortCondition descending="1" ref="B5:B76"/>
-      <sortCondition ref="E5:E76"/>
-      <sortCondition ref="C5:C76"/>
-      <sortCondition ref="D5:D76"/>
-    </sortState>
   </autoFilter>
   <sortState ref="A5:T88">
     <sortCondition descending="1" ref="B5:B88"/>

--- a/TestSet21.xlsx
+++ b/TestSet21.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="48">
   <si>
     <t>SCGD</t>
   </si>
@@ -645,10 +645,10 @@
   <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="64" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="64" topLeftCell="H89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
-      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
+      <selection pane="bottomRight" activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
         <v>i0c-bsc1.xml</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6556</v>
       </c>
@@ -846,7 +846,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6556</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9048</v>
       </c>
@@ -907,7 +907,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9048</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5368</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1212</v>
       </c>
@@ -4679,23 +4679,23 @@
         <v>39</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" ref="F69:F88" si="16">"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F69:F89" si="16">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" ref="G69:G88" si="17">"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G69:G89" si="17">"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ref="H69:H88" si="18">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
+        <f t="shared" ref="H69:H89" si="18">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:I88" si="19">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
+        <f t="shared" ref="I69:I89" si="19">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J88" si="20">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <f t="shared" ref="J69:J89" si="20">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K69" t="str">
@@ -4723,7 +4723,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1212</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5731</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5731</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5892</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5892</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" ref="K76:P88" si="21">"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;K$2&amp;" "&amp;$A76</f>
+        <f t="shared" ref="K76:P89" si="21">"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;K$2&amp;" "&amp;$A76</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L76" t="str">
@@ -5379,7 +5379,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="88" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -5843,12 +5843,74 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="13">
+        <v>2</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="16">
+        <v>500</v>
+      </c>
+      <c r="F89" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G89" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H89" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v>Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="I89" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J89" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="K89" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="L89" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="M89" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="N89" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="O89" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="P89" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P91" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P93" t="s">
         <v>46</v>
       </c>
@@ -5857,25 +5919,19 @@
   <autoFilter ref="A4:S88">
     <filterColumn colId="1">
       <filters>
-        <filter val="SCGD"/>
+        <filter val="STD"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="1-1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="24000"/>
+        <filter val="06000"/>
       </filters>
     </filterColumn>
-    <sortState ref="A5:T76">
-      <sortCondition descending="1" ref="B5:B76"/>
-      <sortCondition ref="E5:E76"/>
-      <sortCondition ref="C5:C76"/>
-      <sortCondition ref="D5:D76"/>
-    </sortState>
   </autoFilter>
   <sortState ref="A5:T88">
     <sortCondition descending="1" ref="B5:B88"/>

--- a/TestSet21.xlsx
+++ b/TestSet21.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="21-Desc" sheetId="2" r:id="rId1"/>
     <sheet name="21-Scripts" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$T$88</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="51">
   <si>
     <t>SCGD</t>
   </si>
@@ -177,6 +178,12 @@
   <si>
     <t>OOS Infer Dataset</t>
   </si>
+  <si>
+    <t>Client XML:</t>
+  </si>
+  <si>
+    <t>Simulation Id:</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -271,6 +278,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +562,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,11 +655,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="64" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="64" topLeftCell="M65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
-      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
+      <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +922,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9048</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5368</v>
       </c>
@@ -1650,7 +1658,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4616</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7656</v>
       </c>
@@ -2383,7 +2391,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4696</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>40</v>
       </c>
@@ -5869,11 +5877,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:T88">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="SCGD"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="06000"/>
@@ -5898,6 +5901,509 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="18" t="str">
+        <f t="shared" ref="B2" si="0">"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>7532</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;D$2&amp;" "&amp;$B4</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7532</v>
+      </c>
+      <c r="E4" s="17" t="str">
+        <f>"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;E$2&amp;" "&amp;$B4</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7532</v>
+      </c>
+      <c r="F4" s="17" t="str">
+        <f>"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;F$2&amp;" "&amp;$B4</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7888</v>
+      </c>
+      <c r="D5" s="17" t="str">
+        <f t="shared" ref="D5:F28" si="1">"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;D$2&amp;" "&amp;$B5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7888</v>
+      </c>
+      <c r="E5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7888</v>
+      </c>
+      <c r="F5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1212</v>
+      </c>
+      <c r="D6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 1212</v>
+      </c>
+      <c r="E6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 1212</v>
+      </c>
+      <c r="F6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 1212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5731</v>
+      </c>
+      <c r="D7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5731</v>
+      </c>
+      <c r="E7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5731</v>
+      </c>
+      <c r="F7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5892</v>
+      </c>
+      <c r="D8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5892</v>
+      </c>
+      <c r="E8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5892</v>
+      </c>
+      <c r="F8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6092</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6092</v>
+      </c>
+      <c r="E9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6092</v>
+      </c>
+      <c r="F9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5764</v>
+      </c>
+      <c r="D10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5764</v>
+      </c>
+      <c r="E10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5764</v>
+      </c>
+      <c r="F10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5648</v>
+      </c>
+      <c r="D11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5648</v>
+      </c>
+      <c r="E11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5648</v>
+      </c>
+      <c r="F11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6176</v>
+      </c>
+      <c r="D12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6176</v>
+      </c>
+      <c r="E12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6176</v>
+      </c>
+      <c r="F12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8193</v>
+      </c>
+      <c r="D13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8193</v>
+      </c>
+      <c r="E13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8193</v>
+      </c>
+      <c r="F13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5356</v>
+      </c>
+      <c r="D14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5356</v>
+      </c>
+      <c r="E14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5356</v>
+      </c>
+      <c r="F14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>956</v>
+      </c>
+      <c r="D15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 956</v>
+      </c>
+      <c r="E15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 956</v>
+      </c>
+      <c r="F15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>8195</v>
+      </c>
+      <c r="D16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8195</v>
+      </c>
+      <c r="E16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8195</v>
+      </c>
+      <c r="F16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>6692</v>
+      </c>
+      <c r="D17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6692</v>
+      </c>
+      <c r="E17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6692</v>
+      </c>
+      <c r="F17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6692</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>8064</v>
+      </c>
+      <c r="D18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8064</v>
+      </c>
+      <c r="E18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8064</v>
+      </c>
+      <c r="F18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8064</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>6435</v>
+      </c>
+      <c r="D19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6435</v>
+      </c>
+      <c r="E19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6435</v>
+      </c>
+      <c r="F19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6435</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>7476</v>
+      </c>
+      <c r="D20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7476</v>
+      </c>
+      <c r="E20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7476</v>
+      </c>
+      <c r="F20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7476</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1416</v>
+      </c>
+      <c r="D21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 1416</v>
+      </c>
+      <c r="E21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 1416</v>
+      </c>
+      <c r="F21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 1416</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5212</v>
+      </c>
+      <c r="D22" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5212</v>
+      </c>
+      <c r="E22" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5212</v>
+      </c>
+      <c r="F22" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5212</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>8636</v>
+      </c>
+      <c r="D23" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8636</v>
+      </c>
+      <c r="E23" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8636</v>
+      </c>
+      <c r="F23" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8636</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>8420</v>
+      </c>
+      <c r="D24" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8420</v>
+      </c>
+      <c r="E24" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8420</v>
+      </c>
+      <c r="F24" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8420</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>7064</v>
+      </c>
+      <c r="D25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7064</v>
+      </c>
+      <c r="E25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7064</v>
+      </c>
+      <c r="F25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7064</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>8500</v>
+      </c>
+      <c r="D26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8500</v>
+      </c>
+      <c r="E26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8500</v>
+      </c>
+      <c r="F26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>5304</v>
+      </c>
+      <c r="D27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5304</v>
+      </c>
+      <c r="E27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5304</v>
+      </c>
+      <c r="F27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5304</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>5776</v>
+      </c>
+      <c r="D28" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5776</v>
+      </c>
+      <c r="E28" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5776</v>
+      </c>
+      <c r="F28" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/TestSet21.xlsx
+++ b/TestSet21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="21-Desc" sheetId="2" r:id="rId1"/>
@@ -176,13 +176,13 @@
     <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</t>
   </si>
   <si>
-    <t>OOS Infer Dataset</t>
-  </si>
-  <si>
     <t>Client XML:</t>
   </si>
   <si>
     <t>Simulation Id:</t>
+  </si>
+  <si>
+    <t>INS Infer Dataset</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -228,20 +228,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -256,13 +247,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -655,11 +639,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="64" topLeftCell="M65" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,9 +658,11 @@
     <col min="8" max="8" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.28515625" customWidth="1"/>
-    <col min="13" max="17" width="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="32" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32" hidden="1" customWidth="1"/>
     <col min="18" max="20" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -685,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>18</v>
@@ -801,7 +787,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="14">
         <v>6556</v>
       </c>
       <c r="B5" t="s">
@@ -836,28 +822,32 @@
         <f t="shared" ref="J5:J36" si="5">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
+      <c r="K5" s="14" t="str">
+        <f t="shared" ref="K5:K36" si="6">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:Q20" si="6">"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;L$2&amp;" "&amp;$A5</f>
+        <f t="shared" ref="L5:Q14" si="7">"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;L$2&amp;" "&amp;$A5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6556</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6556</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6556</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6556</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6556</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6556</v>
       </c>
     </row>
@@ -897,104 +887,111 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
+      <c r="K6" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9048</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9048</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9048</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9048</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9048</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9048</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>5368</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>2</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <v>200</v>
       </c>
-      <c r="F7" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G7" s="13" t="str">
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G7" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
-      <c r="H7" s="13" t="str">
+      <c r="H7" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="I7" s="13" t="str">
+      <c r="I7" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5368</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5368</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5368</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5368</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5368</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5368</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1624</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <v>2</v>
       </c>
       <c r="D8" s="6">
@@ -1023,28 +1020,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
+      <c r="K8" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1624</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1624</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1624</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1624</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1624</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1624</v>
       </c>
     </row>
@@ -1084,28 +1085,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
+      <c r="K9" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9368</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9368</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9368</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9368</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9368</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9368</v>
       </c>
     </row>
@@ -1145,28 +1150,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
+      <c r="K10" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3400</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3400</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3400</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3400</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3400</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3400</v>
       </c>
     </row>
@@ -1206,28 +1215,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
+      <c r="K11" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9372</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9372</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9372</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9372</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9372</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9372</v>
       </c>
     </row>
@@ -1267,28 +1280,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
+      <c r="K12" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3576</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3576</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3576</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3576</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3576</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3576</v>
       </c>
     </row>
@@ -1328,28 +1345,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
+      <c r="K13" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1980</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1980</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1980</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1980</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1980</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1980</v>
       </c>
     </row>
@@ -1389,28 +1410,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
+      <c r="K14" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8052</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8052</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8052</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8052</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8052</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8052</v>
       </c>
     </row>
@@ -1450,28 +1475,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
+      <c r="K15" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L15:Q24" si="8">"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;L$2&amp;" "&amp;$A15</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5532</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5532</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5532</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5532</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5532</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5532</v>
       </c>
     </row>
@@ -1511,28 +1540,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
+      <c r="K16" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
       <c r="L16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6348</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6348</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6348</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6348</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6348</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6348</v>
       </c>
     </row>
@@ -1572,28 +1605,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K17" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9488</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9488</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9488</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9488</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9488</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9488</v>
       </c>
     </row>
@@ -1633,32 +1670,36 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K18" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4616</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4616</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4616</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4616</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4616</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4616</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7656</v>
       </c>
@@ -1694,28 +1735,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K19" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7656</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7656</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7656</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7656</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7656</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7656</v>
       </c>
     </row>
@@ -1755,33 +1800,37 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K20" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5340</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5340</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5340</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5340</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5340</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5340</v>
       </c>
     </row>
     <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="14">
         <v>9312</v>
       </c>
       <c r="B21" t="s">
@@ -1816,28 +1865,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K21" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:Q36" si="7">"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;L$2&amp;" "&amp;$A21</f>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9312</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9312</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9312</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9312</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9312</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9312</v>
       </c>
     </row>
@@ -1877,28 +1930,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K22" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3144</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3144</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3144</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3144</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3144</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3144</v>
       </c>
     </row>
@@ -1938,28 +1995,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K23" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7688</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7688</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7688</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7688</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7688</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7688</v>
       </c>
     </row>
@@ -1999,28 +2060,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K24" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3780</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3780</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3780</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3780</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3780</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3780</v>
       </c>
     </row>
@@ -2060,28 +2125,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K25" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L25:Q34" si="9">"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;L$2&amp;" "&amp;$A25</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 796</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 796</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 796</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 796</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 796</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 796</v>
       </c>
     </row>
@@ -2121,28 +2190,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K26" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1340</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1340</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1340</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1340</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1340</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1340</v>
       </c>
     </row>
@@ -2182,28 +2255,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K27" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8896</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8896</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8896</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8896</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8896</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8896</v>
       </c>
     </row>
@@ -2243,95 +2320,102 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
+      <c r="K28" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
       <c r="L28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5656</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5656</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5656</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5656</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5656</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5656</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="29" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>2416</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G29" s="8" t="str">
+      <c r="F29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G29" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
-      <c r="H29" s="8" t="str">
+      <c r="H29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="I29" s="8" t="str">
+      <c r="I29" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
-      <c r="J29" s="8" t="str">
+      <c r="J29" s="10" t="str">
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" t="str">
-        <f t="shared" si="7"/>
+      <c r="K29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L29" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 2416</v>
       </c>
-      <c r="M29" t="str">
-        <f t="shared" si="7"/>
+      <c r="M29" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 2416</v>
       </c>
-      <c r="N29" t="str">
-        <f t="shared" si="7"/>
+      <c r="N29" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 2416</v>
       </c>
-      <c r="O29" t="str">
-        <f t="shared" si="7"/>
+      <c r="O29" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 2416</v>
       </c>
-      <c r="P29" t="str">
-        <f t="shared" si="7"/>
+      <c r="P29" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 2416</v>
       </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q29" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2416</v>
       </c>
     </row>
     <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="8">
         <v>4696</v>
       </c>
       <c r="B30" t="s">
@@ -2366,33 +2450,37 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
+      <c r="K30" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
       <c r="L30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4696</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4696</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4696</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4696</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4696</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4696</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B31" t="s">
@@ -2427,28 +2515,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
+      <c r="K31" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
       <c r="L31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
       </c>
     </row>
@@ -2488,28 +2580,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
+      <c r="K32" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
       <c r="L32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7252</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7252</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7252</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7252</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7252</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7252</v>
       </c>
     </row>
@@ -2549,33 +2645,37 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
+      <c r="K33" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
       <c r="L33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4880</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4880</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4880</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4880</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4880</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4880</v>
       </c>
     </row>
     <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
@@ -2610,28 +2710,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
+      <c r="K34" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
       <c r="L34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
       </c>
     </row>
@@ -2671,28 +2775,32 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
+      <c r="K35" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
       <c r="L35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L35:Q44" si="10">"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;L$2&amp;" "&amp;$A35</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3476</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3476</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3476</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3476</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3476</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3476</v>
       </c>
     </row>
@@ -2729,33 +2837,38 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
+      <c r="K36" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
       <c r="L36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
     <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2767,52 +2880,60 @@
       <c r="E37" s="6">
         <v>200</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" ref="F37:F68" si="8">"Config.NoInclude/Client.xml"</f>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" ref="G37:G68" si="9">"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
+      <c r="F37" s="14" t="str">
+        <f t="shared" ref="F37:F68" si="11">"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G37" s="14" t="str">
+        <f t="shared" ref="G37:G68" si="12">"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" ref="H37:H68" si="10">"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
+      <c r="H37" s="14" t="str">
+        <f t="shared" ref="H37:H68" si="13">"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="I37" t="str">
-        <f t="shared" ref="I37:I68" si="11">"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
+      <c r="I37" s="14" t="str">
+        <f t="shared" ref="I37:I68" si="14">"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
-      <c r="J37" t="str">
-        <f t="shared" ref="J37:J68" si="12">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
+      <c r="J37" s="14" t="str">
+        <f t="shared" ref="J37:J68" si="15">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
+      <c r="K37" s="14" t="str">
+        <f t="shared" ref="K37:K68" si="16">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
       <c r="L37" t="str">
-        <f t="shared" ref="L37:Q52" si="13">"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;L$2&amp;" "&amp;$A37</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
     </row>
     <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
       <c r="B38" t="s">
         <v>3</v>
       </c>
@@ -2826,47 +2947,51 @@
         <v>39</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H38" t="str">
+        <f t="shared" si="13"/>
+        <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="14"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="K38" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L38" t="str">
         <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
@@ -2884,47 +3009,51 @@
         <v>100</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H39" t="str">
+        <f t="shared" si="13"/>
+        <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="14"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="K39" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L39" t="str">
         <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
@@ -2942,58 +3071,62 @@
         <v>200</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H40" t="str">
+        <f t="shared" si="13"/>
+        <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="14"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="K40" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L40" t="str">
         <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
     <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="8">
         <v>5764</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="14">
         <v>2</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -3003,47 +3136,51 @@
         <v>39</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H41" t="str">
+        <f t="shared" si="13"/>
+        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="14"/>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="K41" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L41" t="str">
         <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5764</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5764</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5764</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5764</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5764</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5764</v>
       </c>
     </row>
@@ -3054,7 +3191,7 @@
       <c r="B42" t="s">
         <v>0</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="14">
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -3064,170 +3201,181 @@
         <v>100</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H42" t="str">
+        <f t="shared" si="13"/>
+        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="14"/>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="K42" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L42" t="str">
         <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5648</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5648</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5648</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5648</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5648</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>6176</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10">
+        <v>2</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="13">
+        <v>200</v>
+      </c>
+      <c r="F43" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G43" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="H43" s="10" t="str">
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="I42" t="str">
-        <f t="shared" si="11"/>
+      <c r="I43" s="10" t="str">
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
-      <c r="J42" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5648</v>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5648</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5648</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5648</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5648</v>
-      </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5648</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>6176</v>
-      </c>
-      <c r="B43" s="13" t="s">
+      <c r="J43" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="K43" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6176</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6176</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6176</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6176</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6176</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="10"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6176</v>
+      </c>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C44" s="10">
         <v>2</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="16">
-        <v>200</v>
-      </c>
-      <c r="F43" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G43" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
-      </c>
-      <c r="H43" s="13" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="I43" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
-      </c>
-      <c r="J43" s="13" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="K43" s="13"/>
-      <c r="L43" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6176</v>
-      </c>
-      <c r="M43" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6176</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6176</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6176</v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6176</v>
-      </c>
-      <c r="Q43" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6176</v>
-      </c>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-    </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="13">
-        <v>2</v>
-      </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="6">
         <v>500</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H44" t="str">
+        <f t="shared" si="13"/>
+        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="14"/>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="K44" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L44" t="str">
         <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="13"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
@@ -3238,7 +3386,7 @@
       <c r="B45" t="s">
         <v>0</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="14">
         <v>2</v>
       </c>
       <c r="D45" s="6">
@@ -3248,47 +3396,51 @@
         <v>39</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K45" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L45:Q54" si="17">"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;L$2&amp;" "&amp;$A45</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5356</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5356</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5356</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5356</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5356</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5356</v>
       </c>
     </row>
@@ -3299,7 +3451,7 @@
       <c r="B46" t="s">
         <v>0</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="14">
         <v>2</v>
       </c>
       <c r="D46" s="6">
@@ -3309,47 +3461,51 @@
         <v>100</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K46" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 956</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 956</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 956</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 956</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 956</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 956</v>
       </c>
     </row>
@@ -3360,7 +3516,7 @@
       <c r="B47" t="s">
         <v>0</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="14">
         <v>2</v>
       </c>
       <c r="D47" s="6">
@@ -3370,47 +3526,51 @@
         <v>200</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K47" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8195</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8195</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8195</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8195</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8195</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8195</v>
       </c>
     </row>
@@ -3418,7 +3578,7 @@
       <c r="B48" t="s">
         <v>0</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="14">
         <v>2</v>
       </c>
       <c r="D48" s="6">
@@ -3428,58 +3588,62 @@
         <v>500</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K48" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8064</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="14">
         <v>2</v>
       </c>
       <c r="D49" s="6">
@@ -3489,58 +3653,62 @@
         <v>39</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K49" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8064</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8064</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8064</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8064</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8064</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8064</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6435</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="14">
         <v>2</v>
       </c>
       <c r="D50" s="6">
@@ -3550,58 +3718,62 @@
         <v>100</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K50" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6435</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6435</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6435</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6435</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6435</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6435</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7476</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="14">
         <v>2</v>
       </c>
       <c r="D51" s="6">
@@ -3611,55 +3783,59 @@
         <v>200</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K51" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7476</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7476</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7476</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7476</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7476</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7476</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>0</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="14">
         <v>2</v>
       </c>
       <c r="D52" s="6">
@@ -3669,51 +3845,55 @@
         <v>500</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K52" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5212</v>
       </c>
@@ -3730,51 +3910,55 @@
         <v>39</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K53" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L53" t="str">
-        <f t="shared" ref="L53:Q68" si="14">"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;L$2&amp;" "&amp;$A53</f>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5212</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5212</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5212</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5212</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5212</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5212</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8636</v>
       </c>
@@ -3791,58 +3975,62 @@
         <v>100</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K54" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8636</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8636</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8636</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8636</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8636</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8636</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
         <v>8420</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="14">
         <v>2</v>
       </c>
       <c r="D55" s="6">
@@ -3851,52 +4039,59 @@
       <c r="E55" s="6">
         <v>200</v>
       </c>
-      <c r="F55" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="9"/>
+      <c r="F55" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G55" s="14" t="str">
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" si="10"/>
+      <c r="H55" s="14" t="str">
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="I55" t="str">
-        <f t="shared" si="11"/>
+      <c r="I55" s="14" t="str">
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
-      <c r="J55" t="str">
-        <f t="shared" si="12"/>
+      <c r="J55" s="14" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K55" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="L55:Q64" si="18">"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;L$2&amp;" "&amp;$A55</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8420</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8420</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8420</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8420</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8420</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8420</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+    </row>
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -3910,52 +4105,56 @@
         <v>500</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
+      <c r="K56" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
       <c r="L56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>5920</v>
       </c>
       <c r="B57" t="s">
@@ -3971,51 +4170,55 @@
         <v>39</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K57" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5920</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5920</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5920</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5920</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5920</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5920</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4935</v>
       </c>
@@ -4032,51 +4235,55 @@
         <v>100</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K58" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4935</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4935</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4935</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4935</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4935</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4935</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7360</v>
       </c>
@@ -4093,51 +4300,55 @@
         <v>200</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K59" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L59" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;L$2&amp;" "&amp;$A59</f>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7360</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7360</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7360</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7360</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7360</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7360</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2444</v>
       </c>
@@ -4154,51 +4365,55 @@
         <v>500</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K60" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L60" t="str">
-        <f t="shared" ref="L60:Q75" si="15">"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;L$2&amp;" "&amp;$A60</f>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 2444</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 2444</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 2444</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 2444</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 2444</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2444</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6307</v>
       </c>
@@ -4215,51 +4430,55 @@
         <v>39</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K61" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L61" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6307</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6307</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6307</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6307</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6307</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6307</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6827</v>
       </c>
@@ -4276,51 +4495,55 @@
         <v>100</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K62" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6827</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6827</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6827</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6827</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6827</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6827</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7376</v>
       </c>
@@ -4337,51 +4560,56 @@
         <v>200</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K63" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L63" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7376</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7376</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7376</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7376</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7376</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7376</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -4395,47 +4623,51 @@
         <v>500</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K64" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L64" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
@@ -4456,47 +4688,51 @@
         <v>39</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K65" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="L65:Q74" si="19">"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;L$2&amp;" "&amp;$A65</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8892</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8892</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8892</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8892</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8892</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8892</v>
       </c>
     </row>
@@ -4517,47 +4753,51 @@
         <v>100</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K66" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L66" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6396</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6396</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6396</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6396</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6396</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6396</v>
       </c>
     </row>
@@ -4578,47 +4818,51 @@
         <v>200</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K67" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7532</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7532</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7532</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7532</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7532</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7532</v>
       </c>
     </row>
@@ -4636,47 +4880,51 @@
         <v>500</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K68" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L68" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
@@ -4697,47 +4945,51 @@
         <v>39</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" ref="F69:F88" si="16">"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F69:F88" si="20">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" ref="G69:G88" si="17">"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G69:G88" si="21">"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ref="H69:H88" si="18">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
+        <f t="shared" ref="H69:H88" si="22">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:I88" si="19">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
+        <f t="shared" ref="I69:I88" si="23">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J88" si="20">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <f t="shared" ref="J69:J100" si="24">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
+      <c r="K69" s="14" t="str">
+        <f t="shared" ref="K69:K88" si="25">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
       <c r="L69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1212</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1212</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1212</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1212</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1212</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1212</v>
       </c>
     </row>
@@ -4758,47 +5010,51 @@
         <v>100</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I70" t="str">
+        <f t="shared" si="23"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="24"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="K70" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L70" t="str">
         <f t="shared" si="19"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="20"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
-      </c>
-      <c r="L70" t="str">
-        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5731</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5731</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5731</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5731</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5731</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5731</v>
       </c>
     </row>
@@ -4819,47 +5075,51 @@
         <v>200</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I71" t="str">
+        <f t="shared" si="23"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="24"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="K71" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L71" t="str">
         <f t="shared" si="19"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="20"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
-      </c>
-      <c r="L71" t="str">
-        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5892</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5892</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5892</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5892</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5892</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5892</v>
       </c>
     </row>
@@ -4880,117 +5140,124 @@
         <v>500</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I72" t="str">
+        <f t="shared" si="23"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="24"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="K72" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L72" t="str">
         <f t="shared" si="19"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
-      </c>
-      <c r="J72" t="str">
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6092</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="19"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6092</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="19"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6092</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="19"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6092</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="19"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6092</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="19"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6092</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>8500</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
-      </c>
-      <c r="L72" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6092</v>
-      </c>
-      <c r="M72" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6092</v>
-      </c>
-      <c r="N72" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6092</v>
-      </c>
-      <c r="O72" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6092</v>
-      </c>
-      <c r="P72" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6092</v>
-      </c>
-      <c r="Q72" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6092</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>8500</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F73" s="13" t="str">
-        <f t="shared" si="16"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G73" s="13" t="str">
-        <f t="shared" si="17"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G73" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
-      <c r="H73" s="13" t="str">
-        <f t="shared" si="18"/>
+      <c r="H73" s="10" t="str">
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="I73" s="13" t="str">
+      <c r="I73" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J73" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K73" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L73" t="str">
         <f t="shared" si="19"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
-      </c>
-      <c r="J73" s="13" t="str">
-        <f t="shared" si="20"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
-      </c>
-      <c r="K73" s="13"/>
-      <c r="L73" t="str">
-        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8500</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8500</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8500</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8500</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8500</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8500</v>
       </c>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-    </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
         <v>5304</v>
       </c>
       <c r="B74" t="s">
@@ -5006,51 +5273,55 @@
         <v>100</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I74" t="str">
+        <f t="shared" si="23"/>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="24"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K74" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L74" t="str">
         <f t="shared" si="19"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
-      </c>
-      <c r="J74" t="str">
-        <f t="shared" si="20"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
-      </c>
-      <c r="L74" t="str">
-        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5304</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5304</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5304</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5304</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5304</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5304</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -5064,47 +5335,51 @@
         <v>200</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K75" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L75" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="L75:Q88" si="26">"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;L$2&amp;" "&amp;$A75</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
@@ -5122,55 +5397,59 @@
         <v>500</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K76" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L76" t="str">
-        <f t="shared" ref="L76:Q88" si="21">"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;L$2&amp;" "&amp;$A76</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
         <v>5776</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -5182,52 +5461,62 @@
       <c r="E77" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F77" t="str">
-        <f t="shared" si="16"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="17"/>
+      <c r="F77" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G77" s="14" t="str">
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
-      <c r="H77" t="str">
-        <f t="shared" si="18"/>
+      <c r="H77" s="14" t="str">
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="I77" t="str">
-        <f t="shared" si="19"/>
+      <c r="I77" s="14" t="str">
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
-      <c r="J77" t="str">
-        <f t="shared" si="20"/>
+      <c r="J77" s="14" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="L77" t="str">
-        <f t="shared" si="21"/>
+      <c r="K77" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L77" s="14" t="str">
+        <f t="shared" si="26"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5776</v>
       </c>
-      <c r="M77" t="str">
-        <f t="shared" si="21"/>
+      <c r="M77" s="14" t="str">
+        <f t="shared" si="26"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5776</v>
       </c>
-      <c r="N77" t="str">
-        <f t="shared" si="21"/>
+      <c r="N77" s="14" t="str">
+        <f t="shared" si="26"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5776</v>
       </c>
-      <c r="O77" t="str">
-        <f t="shared" si="21"/>
+      <c r="O77" s="14" t="str">
+        <f t="shared" si="26"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5776</v>
       </c>
-      <c r="P77" t="str">
-        <f t="shared" si="21"/>
+      <c r="P77" s="14" t="str">
+        <f t="shared" si="26"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5776</v>
       </c>
-      <c r="Q77" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q77" s="14" t="str">
+        <f t="shared" si="26"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5776</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>984</v>
+      </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -5241,51 +5530,56 @@
         <v>100</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K78" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 984</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 984</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 984</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 984</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 984</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 984</v>
       </c>
     </row>
     <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -5299,47 +5593,51 @@
         <v>200</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K79" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L79" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
@@ -5357,51 +5655,58 @@
         <v>500</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K80" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L80" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="81" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3724</v>
+      </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -5415,51 +5720,58 @@
         <v>39</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K81" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3724</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3724</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3724</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3724</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3724</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
-      </c>
-    </row>
-    <row r="82" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3724</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>9720</v>
+      </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -5473,51 +5785,55 @@
         <v>100</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K82" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9720</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9720</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9720</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9720</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9720</v>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
-      </c>
-    </row>
-    <row r="83" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -5531,51 +5847,55 @@
         <v>200</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K83" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="84" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -5589,51 +5909,55 @@
         <v>500</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K84" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L84" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O84" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="85" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -5647,51 +5971,55 @@
         <v>39</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K85" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L85" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M85" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O85" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q85" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="86" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -5705,51 +6033,55 @@
         <v>100</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K86" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L86" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M86" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O86" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="87" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -5763,51 +6095,55 @@
         <v>200</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K87" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="88" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -5821,72 +6157,88 @@
         <v>500</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
+      <c r="K88" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
       <c r="L88" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O88" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q91" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q93" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:T88">
-    <filterColumn colId="3">
+    <filterColumn colId="1">
       <filters>
-        <filter val="06000"/>
+        <filter val="SCGD"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2-2-1"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="200"/>
+        <filter val="100"/>
+        <filter val="050"/>
       </filters>
     </filterColumn>
+    <sortState ref="A5:T88">
+      <sortCondition descending="1" ref="B5:B88"/>
+      <sortCondition ref="C5:C88"/>
+      <sortCondition ref="D5:D88"/>
+      <sortCondition ref="E5:E88"/>
+    </sortState>
   </autoFilter>
   <sortState ref="A5:T88">
     <sortCondition descending="1" ref="B5:B88"/>
@@ -5903,7 +6255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5922,7 +6274,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2">
         <v>21</v>
@@ -5930,20 +6282,20 @@
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="18" t="str">
+        <v>48</v>
+      </c>
+      <c r="B2" s="15" t="str">
         <f t="shared" ref="B2" si="0">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
@@ -5960,7 +6312,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -5979,11 +6331,11 @@
         <f>"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;D$2&amp;" "&amp;$B4</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7532</v>
       </c>
-      <c r="E4" s="17" t="str">
+      <c r="E4" s="14" t="str">
         <f>"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;E$2&amp;" "&amp;$B4</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7532</v>
       </c>
-      <c r="F4" s="17" t="str">
+      <c r="F4" s="14" t="str">
         <f>"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;F$2&amp;" "&amp;$B4</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7532</v>
       </c>
@@ -5992,15 +6344,15 @@
       <c r="B5">
         <v>7888</v>
       </c>
-      <c r="D5" s="17" t="str">
+      <c r="D5" s="14" t="str">
         <f t="shared" ref="D5:F28" si="1">"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;D$2&amp;" "&amp;$B5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7888</v>
       </c>
-      <c r="E5" s="17" t="str">
+      <c r="E5" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7888</v>
       </c>
-      <c r="F5" s="17" t="str">
+      <c r="F5" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7888</v>
       </c>
@@ -6009,15 +6361,15 @@
       <c r="B6">
         <v>1212</v>
       </c>
-      <c r="D6" s="17" t="str">
+      <c r="D6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 1212</v>
       </c>
-      <c r="E6" s="17" t="str">
+      <c r="E6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 1212</v>
       </c>
-      <c r="F6" s="17" t="str">
+      <c r="F6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 1212</v>
       </c>
@@ -6026,15 +6378,15 @@
       <c r="B7">
         <v>5731</v>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5731</v>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5731</v>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5731</v>
       </c>
@@ -6043,15 +6395,15 @@
       <c r="B8">
         <v>5892</v>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5892</v>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5892</v>
       </c>
-      <c r="F8" s="17" t="str">
+      <c r="F8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5892</v>
       </c>
@@ -6060,15 +6412,15 @@
       <c r="B9">
         <v>6092</v>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6092</v>
       </c>
-      <c r="E9" s="17" t="str">
+      <c r="E9" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6092</v>
       </c>
-      <c r="F9" s="17" t="str">
+      <c r="F9" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6092</v>
       </c>
@@ -6077,15 +6429,15 @@
       <c r="B10">
         <v>5764</v>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5764</v>
       </c>
-      <c r="E10" s="17" t="str">
+      <c r="E10" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5764</v>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5764</v>
       </c>
@@ -6094,15 +6446,15 @@
       <c r="B11">
         <v>5648</v>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5648</v>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5648</v>
       </c>
-      <c r="F11" s="17" t="str">
+      <c r="F11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5648</v>
       </c>
@@ -6111,15 +6463,15 @@
       <c r="B12">
         <v>6176</v>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6176</v>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6176</v>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6176</v>
       </c>
@@ -6128,15 +6480,15 @@
       <c r="B13">
         <v>8193</v>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8193</v>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8193</v>
       </c>
-      <c r="F13" s="17" t="str">
+      <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8193</v>
       </c>
@@ -6145,15 +6497,15 @@
       <c r="B14">
         <v>5356</v>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5356</v>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5356</v>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5356</v>
       </c>
@@ -6162,15 +6514,15 @@
       <c r="B15">
         <v>956</v>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 956</v>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 956</v>
       </c>
-      <c r="F15" s="17" t="str">
+      <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 956</v>
       </c>
@@ -6179,15 +6531,15 @@
       <c r="B16">
         <v>8195</v>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8195</v>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8195</v>
       </c>
-      <c r="F16" s="17" t="str">
+      <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8195</v>
       </c>
@@ -6196,15 +6548,15 @@
       <c r="B17">
         <v>6692</v>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6692</v>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6692</v>
       </c>
-      <c r="F17" s="17" t="str">
+      <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6692</v>
       </c>
@@ -6213,15 +6565,15 @@
       <c r="B18">
         <v>8064</v>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8064</v>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8064</v>
       </c>
-      <c r="F18" s="17" t="str">
+      <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8064</v>
       </c>
@@ -6230,15 +6582,15 @@
       <c r="B19">
         <v>6435</v>
       </c>
-      <c r="D19" s="17" t="str">
+      <c r="D19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6435</v>
       </c>
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6435</v>
       </c>
-      <c r="F19" s="17" t="str">
+      <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6435</v>
       </c>
@@ -6247,15 +6599,15 @@
       <c r="B20">
         <v>7476</v>
       </c>
-      <c r="D20" s="17" t="str">
+      <c r="D20" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7476</v>
       </c>
-      <c r="E20" s="17" t="str">
+      <c r="E20" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7476</v>
       </c>
-      <c r="F20" s="17" t="str">
+      <c r="F20" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7476</v>
       </c>
@@ -6264,15 +6616,15 @@
       <c r="B21">
         <v>1416</v>
       </c>
-      <c r="D21" s="17" t="str">
+      <c r="D21" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 1416</v>
       </c>
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 1416</v>
       </c>
-      <c r="F21" s="17" t="str">
+      <c r="F21" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 1416</v>
       </c>
@@ -6281,15 +6633,15 @@
       <c r="B22">
         <v>5212</v>
       </c>
-      <c r="D22" s="17" t="str">
+      <c r="D22" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5212</v>
       </c>
-      <c r="E22" s="17" t="str">
+      <c r="E22" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5212</v>
       </c>
-      <c r="F22" s="17" t="str">
+      <c r="F22" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5212</v>
       </c>
@@ -6298,15 +6650,15 @@
       <c r="B23">
         <v>8636</v>
       </c>
-      <c r="D23" s="17" t="str">
+      <c r="D23" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8636</v>
       </c>
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8636</v>
       </c>
-      <c r="F23" s="17" t="str">
+      <c r="F23" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8636</v>
       </c>
@@ -6315,15 +6667,15 @@
       <c r="B24">
         <v>8420</v>
       </c>
-      <c r="D24" s="17" t="str">
+      <c r="D24" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8420</v>
       </c>
-      <c r="E24" s="17" t="str">
+      <c r="E24" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8420</v>
       </c>
-      <c r="F24" s="17" t="str">
+      <c r="F24" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8420</v>
       </c>
@@ -6332,15 +6684,15 @@
       <c r="B25">
         <v>7064</v>
       </c>
-      <c r="D25" s="17" t="str">
+      <c r="D25" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7064</v>
       </c>
-      <c r="E25" s="17" t="str">
+      <c r="E25" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7064</v>
       </c>
-      <c r="F25" s="17" t="str">
+      <c r="F25" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7064</v>
       </c>
@@ -6349,15 +6701,15 @@
       <c r="B26">
         <v>8500</v>
       </c>
-      <c r="D26" s="17" t="str">
+      <c r="D26" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8500</v>
       </c>
-      <c r="E26" s="17" t="str">
+      <c r="E26" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8500</v>
       </c>
-      <c r="F26" s="17" t="str">
+      <c r="F26" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8500</v>
       </c>
@@ -6366,15 +6718,15 @@
       <c r="B27">
         <v>5304</v>
       </c>
-      <c r="D27" s="17" t="str">
+      <c r="D27" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5304</v>
       </c>
-      <c r="E27" s="17" t="str">
+      <c r="E27" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5304</v>
       </c>
-      <c r="F27" s="17" t="str">
+      <c r="F27" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5304</v>
       </c>
@@ -6383,15 +6735,15 @@
       <c r="B28">
         <v>5776</v>
       </c>
-      <c r="D28" s="17" t="str">
+      <c r="D28" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5776</v>
       </c>
-      <c r="E28" s="17" t="str">
+      <c r="E28" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5776</v>
       </c>
-      <c r="F28" s="17" t="str">
+      <c r="F28" s="14" t="str">
         <f t="shared" si="1"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5776</v>
       </c>
@@ -6434,7 +6786,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U5" s="17">
+      <c r="U5" s="14">
         <v>5764</v>
       </c>
       <c r="V5" t="str">
@@ -6443,7 +6795,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U6" s="17">
+      <c r="U6" s="14">
         <v>5648</v>
       </c>
     </row>
@@ -6469,7 +6821,7 @@
         <f t="shared" ref="F7:F22" si="2">"insert into DBConnections values("&amp;A7&amp;", "&amp;B7&amp;", 0, 'LogUser', 'LogPwd', 'Algo');"</f>
         <v>insert into DBConnections values(1212, 3620, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="14">
         <v>6176</v>
       </c>
     </row>
@@ -6495,7 +6847,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(2444, 9124, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="14">
         <v>8193</v>
       </c>
     </row>
@@ -6521,7 +6873,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(4935, 616, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="14">
         <v>5356</v>
       </c>
     </row>
@@ -6547,7 +6899,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(4948, 8668, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="14">
         <v>956</v>
       </c>
     </row>
@@ -6573,7 +6925,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(5284, 6452, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="14">
         <v>8195</v>
       </c>
     </row>
@@ -6599,7 +6951,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(5731, 7584, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="14">
         <v>6692</v>
       </c>
     </row>
@@ -6625,7 +6977,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(5892, 8196, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U13" s="17">
+      <c r="U13" s="14">
         <v>8588</v>
       </c>
     </row>
@@ -6651,7 +7003,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(5920, 4160, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U14" s="17">
+      <c r="U14" s="14">
         <v>8064</v>
       </c>
     </row>
@@ -6677,7 +7029,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(6307, 6928, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U15" s="17">
+      <c r="U15" s="14">
         <v>6435</v>
       </c>
     </row>
@@ -6703,7 +7055,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(6396, 2440, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="14">
         <v>7476</v>
       </c>
     </row>
@@ -6729,7 +7081,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(6827, 8088, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U17" s="17">
+      <c r="U17" s="14">
         <v>1416</v>
       </c>
     </row>
@@ -6755,7 +7107,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(7360, 1956, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="14">
         <v>7687</v>
       </c>
     </row>
@@ -6781,7 +7133,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(7376, 7196, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U19" s="17">
+      <c r="U19" s="14">
         <v>5212</v>
       </c>
     </row>
@@ -6807,7 +7159,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(7532, 6836, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U20" s="17">
+      <c r="U20" s="14">
         <v>8636</v>
       </c>
     </row>
@@ -6833,7 +7185,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(8484, 2920, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U21" s="17">
+      <c r="U21" s="14">
         <v>8420</v>
       </c>
     </row>

--- a/TestSet21.xlsx
+++ b/TestSet21.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="53">
   <si>
     <t>SCGD</t>
   </si>
@@ -170,12 +170,6 @@
     <t>Config.NoInclude/DataSets/i0c-bsc1.xml</t>
   </si>
   <si>
-    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5764</t>
-  </si>
-  <si>
-    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</t>
-  </si>
-  <si>
     <t>Client XML:</t>
   </si>
   <si>
@@ -183,6 +177,18 @@
   </si>
   <si>
     <t>INS Infer Dataset</t>
+  </si>
+  <si>
+    <t>2-2-1Deep</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>24000</t>
   </si>
 </sst>
 </file>
@@ -232,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -263,6 +269,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,14 +645,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L74" sqref="L74"/>
+      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>18</v>
@@ -786,7 +794,7 @@
         <v>i0c-bsc1.xml</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>6556</v>
       </c>
@@ -851,7 +859,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6556</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9048</v>
       </c>
@@ -916,7 +924,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9048</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5368</v>
       </c>
@@ -984,7 +992,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1624</v>
       </c>
@@ -1049,7 +1057,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1624</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9368</v>
       </c>
@@ -1114,7 +1122,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9368</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3400</v>
       </c>
@@ -1179,7 +1187,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9372</v>
       </c>
@@ -1244,7 +1252,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9372</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3576</v>
       </c>
@@ -1309,7 +1317,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3576</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1980</v>
       </c>
@@ -1374,7 +1382,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1980</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8052</v>
       </c>
@@ -1439,7 +1447,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8052</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5532</v>
       </c>
@@ -1504,7 +1512,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5532</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>6348</v>
       </c>
@@ -1569,7 +1577,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6348</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9488</v>
       </c>
@@ -1634,7 +1642,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9488</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4616</v>
       </c>
@@ -1699,7 +1707,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4616</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7656</v>
       </c>
@@ -1764,7 +1772,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7656</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5340</v>
       </c>
@@ -1829,7 +1837,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5340</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>9312</v>
       </c>
@@ -1894,7 +1902,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9312</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3144</v>
       </c>
@@ -1959,7 +1967,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3144</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7688</v>
       </c>
@@ -2024,7 +2032,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7688</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3780</v>
       </c>
@@ -2089,7 +2097,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3780</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>796</v>
       </c>
@@ -2154,7 +2162,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 796</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1340</v>
       </c>
@@ -2219,7 +2227,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1340</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8896</v>
       </c>
@@ -2284,7 +2292,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8896</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5656</v>
       </c>
@@ -2349,7 +2357,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5656</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>2416</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2416</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>4696</v>
       </c>
@@ -2479,7 +2487,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4696</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>40</v>
       </c>
@@ -2544,7 +2552,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7252</v>
       </c>
@@ -2609,7 +2617,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7252</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4880</v>
       </c>
@@ -2674,7 +2682,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4880</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
@@ -2739,7 +2747,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3476</v>
       </c>
@@ -2804,7 +2812,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3476</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -2866,7 +2874,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14" t="s">
         <v>3</v>
@@ -2932,7 +2940,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" t="s">
         <v>3</v>
@@ -2995,7 +3003,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3057,7 +3065,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3119,7 +3127,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>5764</v>
       </c>
@@ -3184,7 +3192,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5764</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5648</v>
       </c>
@@ -3249,7 +3257,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5648</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>6176</v>
       </c>
@@ -3317,7 +3325,7 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3387,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5356</v>
       </c>
@@ -3444,7 +3452,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5356</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>956</v>
       </c>
@@ -3509,7 +3517,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 956</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8195</v>
       </c>
@@ -3574,7 +3582,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8195</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -3636,7 +3644,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8064</v>
       </c>
@@ -3701,7 +3709,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8064</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6435</v>
       </c>
@@ -3766,7 +3774,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6435</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7476</v>
       </c>
@@ -3831,7 +3839,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7476</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -3893,7 +3901,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5212</v>
       </c>
@@ -3958,7 +3966,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5212</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8636</v>
       </c>
@@ -4023,7 +4031,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8636</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>8420</v>
       </c>
@@ -4091,7 +4099,7 @@
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -4153,7 +4161,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>5920</v>
       </c>
@@ -4218,7 +4226,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5920</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4935</v>
       </c>
@@ -4283,7 +4291,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4935</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7360</v>
       </c>
@@ -4348,7 +4356,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7360</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2444</v>
       </c>
@@ -4413,7 +4421,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2444</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6307</v>
       </c>
@@ -4478,7 +4486,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6307</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6827</v>
       </c>
@@ -4543,7 +4551,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6827</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7376</v>
       </c>
@@ -4608,7 +4616,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7376</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" t="s">
         <v>0</v>
@@ -4671,7 +4679,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8892</v>
       </c>
@@ -4736,7 +4744,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8892</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6396</v>
       </c>
@@ -4801,7 +4809,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6396</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7532</v>
       </c>
@@ -4866,7 +4874,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7532</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -4928,7 +4936,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1212</v>
       </c>
@@ -4945,7 +4953,7 @@
         <v>39</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" ref="F69:F88" si="20">"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F69:F104" si="20">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G69" t="str">
@@ -4953,15 +4961,15 @@
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ref="H69:H88" si="22">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
+        <f t="shared" ref="H69:H89" si="22">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:I88" si="23">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
+        <f t="shared" ref="I69:I92" si="23">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J100" si="24">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <f t="shared" ref="J69:J88" si="24">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K69" s="14" t="str">
@@ -4993,7 +5001,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1212</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5731</v>
       </c>
@@ -5058,7 +5066,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5731</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5892</v>
       </c>
@@ -5123,7 +5131,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5892</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6092</v>
       </c>
@@ -5321,7 +5329,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5304</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -5359,7 +5367,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" ref="L75:Q88" si="26">"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;L$2&amp;" "&amp;$A75</f>
+        <f t="shared" ref="L75:Q90" si="26">"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;L$2&amp;" "&amp;$A75</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M75" t="str">
@@ -5383,7 +5391,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -5578,7 +5586,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 984</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" t="s">
         <v>0</v>
@@ -5641,7 +5649,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -5703,7 +5711,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3724</v>
       </c>
@@ -5768,7 +5776,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3724</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>9720</v>
       </c>
@@ -5833,7 +5841,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9720</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -5957,7 +5965,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -6019,7 +6027,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -6081,7 +6089,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -6143,7 +6151,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -6205,41 +6213,1019 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q91" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q93" t="s">
-        <v>46</v>
-      </c>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G89" s="14" t="str">
+        <f t="shared" ref="G89:G104" si="27">"Config.NoInclude/DataShapes/"&amp;E89&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H89" s="14" t="str">
+        <f t="shared" ref="H89:H104" si="28">"Config.NoInclude/Engines/"&amp;B89&amp;"-"&amp;C89&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I89" s="14" t="str">
+        <f t="shared" ref="I89:I104" si="29">"Config.NoInclude/DataSets/"&amp;D89&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J89" s="14" t="str">
+        <f t="shared" ref="J89:J104" si="30">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K89" s="14" t="str">
+        <f t="shared" ref="K89:K104" si="31">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L89" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M89" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N89" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O89" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P89" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q89" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R89" s="14"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B90" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G90" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H90" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I90" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J90" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K90" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L90" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M90" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N90" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O90" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P90" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q90" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R90" s="14"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B91" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G91" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H91" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I91" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J91" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K91" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L91" s="14" t="str">
+        <f t="shared" ref="L91:Q104" si="32">"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;L$2&amp;" "&amp;$A91</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M91" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N91" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O91" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P91" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q91" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R91" s="14"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B92" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G92" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H92" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I92" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J92" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K92" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L92" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M92" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N92" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O92" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P92" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q92" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R92" s="14"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B93" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="6">
+        <v>100</v>
+      </c>
+      <c r="F93" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G93" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+      </c>
+      <c r="H93" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I93" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J93" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K93" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L93" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M93" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N93" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O93" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P93" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q93" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R93" s="14"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B94" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" s="6">
+        <v>100</v>
+      </c>
+      <c r="F94" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G94" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+      </c>
+      <c r="H94" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I94" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J94" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K94" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L94" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M94" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N94" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O94" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P94" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q94" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R94" s="14"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>8135</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" s="6">
+        <v>100</v>
+      </c>
+      <c r="F95" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G95" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+      </c>
+      <c r="H95" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I95" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J95" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K95" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L95" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8135</v>
+      </c>
+      <c r="M95" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8135</v>
+      </c>
+      <c r="N95" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8135</v>
+      </c>
+      <c r="O95" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8135</v>
+      </c>
+      <c r="P95" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8135</v>
+      </c>
+      <c r="Q95" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8135</v>
+      </c>
+      <c r="R95" s="14"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B96" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" s="6">
+        <v>100</v>
+      </c>
+      <c r="F96" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G96" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+      </c>
+      <c r="H96" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I96" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J96" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K96" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L96" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M96" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N96" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O96" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P96" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q96" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R96" s="14"/>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B97" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="6">
+        <v>200</v>
+      </c>
+      <c r="F97" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G97" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="H97" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I97" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J97" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K97" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L97" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M97" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N97" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O97" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P97" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q97" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R97" s="14"/>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B98" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" s="6">
+        <v>200</v>
+      </c>
+      <c r="F98" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G98" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="H98" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I98" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J98" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K98" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L98" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M98" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N98" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O98" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P98" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q98" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R98" s="14"/>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B99" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" s="6">
+        <v>200</v>
+      </c>
+      <c r="F99" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G99" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="H99" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I99" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J99" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K99" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L99" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M99" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N99" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O99" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P99" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q99" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R99" s="14"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B100" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" s="6">
+        <v>200</v>
+      </c>
+      <c r="F100" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G100" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="H100" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I100" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J100" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K100" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L100" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M100" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N100" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O100" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P100" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q100" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R100" s="14"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B101" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="6">
+        <v>500</v>
+      </c>
+      <c r="F101" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G101" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H101" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I101" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J101" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K101" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L101" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M101" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N101" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O101" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P101" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q101" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R101" s="14"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B102" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" s="6">
+        <v>500</v>
+      </c>
+      <c r="F102" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G102" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H102" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I102" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J102" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K102" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L102" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M102" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N102" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O102" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P102" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q102" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R102" s="14"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B103" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="6">
+        <v>500</v>
+      </c>
+      <c r="F103" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G103" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H103" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I103" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J103" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K103" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L103" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M103" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N103" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O103" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P103" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q103" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R103" s="14"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B104" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E104" s="6">
+        <v>500</v>
+      </c>
+      <c r="F104" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G104" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H104" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I104" s="14" t="str">
+        <f t="shared" si="29"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J104" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K104" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L104" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M104" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N104" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O104" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P104" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q104" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R104" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:T88">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="SCGD"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="2-2-1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="100"/>
-        <filter val="050"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A5:T88">
-      <sortCondition descending="1" ref="B5:B88"/>
-      <sortCondition ref="C5:C88"/>
-      <sortCondition ref="D5:D88"/>
-      <sortCondition ref="E5:E88"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A4:T88"/>
   <sortState ref="A5:T88">
     <sortCondition descending="1" ref="B5:B88"/>
     <sortCondition ref="C5:C88"/>
@@ -6274,7 +7260,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2">
         <v>21</v>
@@ -6293,7 +7279,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="15" t="str">
         <f t="shared" ref="B2" si="0">"Config.NoInclude/Client.xml"</f>

--- a/TestSet21.xlsx
+++ b/TestSet21.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$T$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$T$104</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="57">
   <si>
     <t>SCGD</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>24000</t>
+  </si>
+  <si>
+    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 2416</t>
+  </si>
+  <si>
+    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4696</t>
+  </si>
+  <si>
+    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7252</t>
+  </si>
+  <si>
+    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3476</t>
   </si>
 </sst>
 </file>
@@ -645,13 +657,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T104"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomRight" activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +807,7 @@
         <v>i0c-bsc1.xml</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>6556</v>
       </c>
@@ -811,31 +824,31 @@
         <v>39</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F36" si="1">"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F5:F16" si="1">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G36" si="2">"Config.NoInclude/DataShapes/"&amp;E5&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G5:G16" si="2">"Config.NoInclude/DataShapes/"&amp;E5&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H36" si="3">"Config.NoInclude/Engines/"&amp;B5&amp;"-"&amp;C5&amp;".xml"</f>
+        <f t="shared" ref="H5:H16" si="3">"Config.NoInclude/Engines/"&amp;B5&amp;"-"&amp;C5&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I36" si="4">"Config.NoInclude/DataSets/"&amp;D5&amp;".xml"</f>
+        <f t="shared" ref="I5:I16" si="4">"Config.NoInclude/DataSets/"&amp;D5&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J36" si="5">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
+        <f t="shared" ref="J5:J16" si="5">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K5" s="14" t="str">
-        <f t="shared" ref="K5:K36" si="6">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
+        <f t="shared" ref="K5:K16" si="6">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:Q14" si="7">"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;L$2&amp;" "&amp;$A5</f>
+        <f t="shared" ref="L5:Q16" si="7">"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;L$2&amp;" "&amp;$A5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6556</v>
       </c>
       <c r="M5" t="str">
@@ -859,7 +872,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6556</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9048</v>
       </c>
@@ -924,7 +937,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9048</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5368</v>
       </c>
@@ -992,7 +1005,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1624</v>
       </c>
@@ -1057,7 +1070,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1624</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9368</v>
       </c>
@@ -1122,7 +1135,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9368</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3400</v>
       </c>
@@ -1187,7 +1200,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9372</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9372</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3576</v>
       </c>
@@ -1317,7 +1330,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3576</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1980</v>
       </c>
@@ -1382,7 +1395,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1980</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8052</v>
       </c>
@@ -1447,7 +1460,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8052</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5532</v>
       </c>
@@ -1488,33 +1501,33 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:Q24" si="8">"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;L$2&amp;" "&amp;$A15</f>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5532</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5532</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5532</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5532</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5532</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5532</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>6348</v>
+        <v>5656</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1553,31 +1566,31 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6348</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5656</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6348</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5656</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6348</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5656</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6348</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5656</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6348</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5656</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9488</v>
       </c>
@@ -1594,55 +1607,55 @@
         <v>39</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F17:F36" si="8">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G17:G36" si="9">"Config.NoInclude/DataShapes/"&amp;E17&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H17:H36" si="10">"Config.NoInclude/Engines/"&amp;B17&amp;"-"&amp;C17&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I17:I36" si="11">"Config.NoInclude/DataSets/"&amp;D17&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J17:J36" si="12">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G17&amp;" "&amp;I17&amp;" "&amp;H17</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K17" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K17:K36" si="13">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G17&amp;" "&amp;I17&amp;" "&amp;H17</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L17:Q24" si="14">"zzz Infer "&amp;$A$2&amp;" "&amp;$F17&amp;" "&amp;L$2&amp;" "&amp;$A17</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9488</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9488</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9488</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9488</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9488</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9488</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4616</v>
       </c>
@@ -1659,55 +1672,55 @@
         <v>100</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K18" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4616</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4616</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4616</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4616</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4616</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4616</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7656</v>
       </c>
@@ -1724,55 +1737,55 @@
         <v>200</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K19" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7656</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7656</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7656</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7656</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7656</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7656</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5340</v>
       </c>
@@ -1789,55 +1802,55 @@
         <v>39</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K20" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5340</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5340</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5340</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5340</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5340</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5340</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>9312</v>
       </c>
@@ -1854,55 +1867,55 @@
         <v>100</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K21" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9312</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9312</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9312</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9312</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9312</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9312</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3144</v>
       </c>
@@ -1919,55 +1932,55 @@
         <v>200</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K22" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3144</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3144</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3144</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3144</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3144</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3144</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7688</v>
       </c>
@@ -1984,55 +1997,55 @@
         <v>39</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K23" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7688</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7688</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7688</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7688</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7688</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7688</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3780</v>
       </c>
@@ -2049,55 +2062,55 @@
         <v>100</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K24" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3780</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3780</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3780</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3780</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3780</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3780</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>796</v>
       </c>
@@ -2114,55 +2127,55 @@
         <v>200</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K25" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" ref="L25:Q34" si="9">"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;L$2&amp;" "&amp;$A25</f>
+        <f t="shared" ref="L25:Q34" si="15">"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;L$2&amp;" "&amp;$A25</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 796</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 796</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 796</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 796</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 796</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 796</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1340</v>
       </c>
@@ -2179,55 +2192,55 @@
         <v>39</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K26" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1340</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1340</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1340</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1340</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1340</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1340</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8896</v>
       </c>
@@ -2244,55 +2257,55 @@
         <v>100</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K27" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8896</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8896</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8896</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8896</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8896</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8896</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5656</v>
       </c>
@@ -2309,55 +2322,55 @@
         <v>200</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K28" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5656</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5656</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5656</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5656</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5656</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5656</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>2416</v>
       </c>
@@ -2374,55 +2387,55 @@
         <v>39</v>
       </c>
       <c r="F29" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G29" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H29" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I29" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="L29" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 2416</v>
       </c>
       <c r="M29" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 2416</v>
       </c>
       <c r="N29" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 2416</v>
       </c>
       <c r="O29" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 2416</v>
       </c>
       <c r="P29" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 2416</v>
       </c>
       <c r="Q29" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2416</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>4696</v>
       </c>
@@ -2439,55 +2452,55 @@
         <v>100</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K30" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4696</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4696</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4696</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4696</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4696</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4696</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>40</v>
       </c>
@@ -2504,55 +2517,55 @@
         <v>200</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K31" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7252</v>
       </c>
@@ -2569,55 +2582,55 @@
         <v>39</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K32" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7252</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7252</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7252</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7252</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7252</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7252</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4880</v>
       </c>
@@ -2634,55 +2647,55 @@
         <v>100</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K33" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4880</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4880</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4880</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4880</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4880</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4880</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
@@ -2699,55 +2712,55 @@
         <v>200</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K34" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3476</v>
       </c>
@@ -2764,55 +2777,55 @@
         <v>39</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K35" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" ref="L35:Q44" si="10">"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;L$2&amp;" "&amp;$A35</f>
+        <f t="shared" ref="L35:Q44" si="16">"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;L$2&amp;" "&amp;$A35</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3476</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3476</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3476</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3476</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3476</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3476</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -2826,55 +2839,55 @@
         <v>100</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K36" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14" t="s">
         <v>3</v>
@@ -2889,58 +2902,58 @@
         <v>200</v>
       </c>
       <c r="F37" s="14" t="str">
-        <f t="shared" ref="F37:F68" si="11">"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F37:F68" si="17">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G37" s="14" t="str">
-        <f t="shared" ref="G37:G68" si="12">"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G37:G68" si="18">"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H37" s="14" t="str">
-        <f t="shared" ref="H37:H68" si="13">"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
+        <f t="shared" ref="H37:H68" si="19">"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I37" s="14" t="str">
-        <f t="shared" ref="I37:I68" si="14">"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
+        <f t="shared" ref="I37:I68" si="20">"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J37" s="14" t="str">
-        <f t="shared" ref="J37:J68" si="15">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
+        <f t="shared" ref="J37:J68" si="21">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K37" s="14" t="str">
-        <f t="shared" ref="K37:K68" si="16">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
+        <f t="shared" ref="K37:K68" si="22">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" t="s">
         <v>3</v>
@@ -2955,55 +2968,55 @@
         <v>39</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K38" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L38" t="str">
         <f t="shared" si="16"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3017,55 +3030,55 @@
         <v>100</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K39" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L39" t="str">
         <f t="shared" si="16"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3079,55 +3092,55 @@
         <v>200</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K40" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L40" t="str">
         <f t="shared" si="16"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>5764</v>
       </c>
@@ -3144,55 +3157,55 @@
         <v>39</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K41" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L41" t="str">
         <f t="shared" si="16"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5764</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5764</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5764</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5764</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5764</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5764</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5648</v>
       </c>
@@ -3209,55 +3222,55 @@
         <v>100</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K42" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L42" t="str">
         <f t="shared" si="16"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5648</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5648</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5648</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5648</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5648</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5648</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>6176</v>
       </c>
@@ -3274,58 +3287,58 @@
         <v>200</v>
       </c>
       <c r="F43" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G43" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H43" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I43" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J43" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K43" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L43" t="str">
         <f t="shared" si="16"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="10"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6176</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6176</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6176</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6176</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6176</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6176</v>
       </c>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>0</v>
       </c>
@@ -3339,55 +3352,55 @@
         <v>500</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K44" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L44" t="str">
         <f t="shared" si="16"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5356</v>
       </c>
@@ -3404,55 +3417,55 @@
         <v>39</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K45" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" ref="L45:Q54" si="17">"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;L$2&amp;" "&amp;$A45</f>
+        <f t="shared" ref="L45:Q54" si="23">"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;L$2&amp;" "&amp;$A45</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5356</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5356</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5356</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5356</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5356</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5356</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>956</v>
       </c>
@@ -3469,55 +3482,55 @@
         <v>100</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K46" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 956</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 956</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 956</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 956</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 956</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 956</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8195</v>
       </c>
@@ -3534,55 +3547,55 @@
         <v>200</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K47" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8195</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8195</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8195</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8195</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8195</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8195</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -3596,55 +3609,55 @@
         <v>500</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K48" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8064</v>
       </c>
@@ -3661,55 +3674,55 @@
         <v>39</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K49" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8064</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8064</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8064</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8064</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8064</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8064</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6435</v>
       </c>
@@ -3726,55 +3739,55 @@
         <v>100</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K50" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6435</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6435</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6435</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6435</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6435</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6435</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7476</v>
       </c>
@@ -3791,55 +3804,55 @@
         <v>200</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K51" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7476</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7476</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7476</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7476</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7476</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7476</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -3853,55 +3866,55 @@
         <v>500</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K52" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5212</v>
       </c>
@@ -3918,55 +3931,55 @@
         <v>39</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K53" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5212</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5212</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5212</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5212</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5212</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5212</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8636</v>
       </c>
@@ -3983,55 +3996,55 @@
         <v>100</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K54" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8636</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8636</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8636</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8636</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8636</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8636</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>8420</v>
       </c>
@@ -4048,58 +4061,58 @@
         <v>200</v>
       </c>
       <c r="F55" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G55" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H55" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I55" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J55" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K55" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" ref="L55:Q64" si="18">"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;L$2&amp;" "&amp;$A55</f>
+        <f t="shared" ref="L55:Q64" si="24">"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;L$2&amp;" "&amp;$A55</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8420</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8420</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8420</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8420</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8420</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8420</v>
       </c>
       <c r="R55" s="14"/>
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -4113,55 +4126,55 @@
         <v>500</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K56" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>5920</v>
       </c>
@@ -4178,55 +4191,55 @@
         <v>39</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K57" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5920</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5920</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5920</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5920</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5920</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5920</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4935</v>
       </c>
@@ -4243,55 +4256,55 @@
         <v>100</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K58" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4935</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4935</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4935</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4935</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4935</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4935</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7360</v>
       </c>
@@ -4308,55 +4321,55 @@
         <v>200</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K59" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7360</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7360</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7360</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7360</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7360</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7360</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2444</v>
       </c>
@@ -4373,51 +4386,51 @@
         <v>500</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K60" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 2444</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 2444</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 2444</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 2444</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 2444</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2444</v>
       </c>
     </row>
@@ -4438,51 +4451,51 @@
         <v>39</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K61" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6307</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6307</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6307</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6307</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6307</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6307</v>
       </c>
     </row>
@@ -4503,51 +4516,51 @@
         <v>100</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K62" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6827</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6827</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6827</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6827</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6827</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6827</v>
       </c>
     </row>
@@ -4568,51 +4581,51 @@
         <v>200</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K63" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7376</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7376</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7376</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7376</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7376</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7376</v>
       </c>
     </row>
@@ -4631,55 +4644,55 @@
         <v>500</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K64" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8892</v>
       </c>
@@ -4696,55 +4709,55 @@
         <v>39</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K65" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" ref="L65:Q74" si="19">"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;L$2&amp;" "&amp;$A65</f>
+        <f t="shared" ref="L65:Q74" si="25">"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;L$2&amp;" "&amp;$A65</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8892</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8892</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8892</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8892</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8892</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8892</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6396</v>
       </c>
@@ -4761,55 +4774,55 @@
         <v>100</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K66" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6396</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6396</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6396</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6396</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6396</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6396</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7532</v>
       </c>
@@ -4826,55 +4839,55 @@
         <v>200</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K67" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7532</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7532</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7532</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7532</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7532</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7532</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -4888,55 +4901,55 @@
         <v>500</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K68" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1212</v>
       </c>
@@ -4953,55 +4966,55 @@
         <v>39</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" ref="F69:F104" si="20">"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F69:F104" si="26">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" ref="G69:G88" si="21">"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G69:G88" si="27">"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ref="H69:H89" si="22">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
+        <f t="shared" ref="H69:H88" si="28">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:I92" si="23">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
+        <f t="shared" ref="I69:I88" si="29">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J88" si="24">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <f t="shared" ref="J69:J88" si="30">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K69" s="14" t="str">
-        <f t="shared" ref="K69:K88" si="25">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <f t="shared" ref="K69:K88" si="31">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1212</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1212</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1212</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1212</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1212</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1212</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5731</v>
       </c>
@@ -5018,55 +5031,55 @@
         <v>100</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K70" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L70" t="str">
         <f t="shared" si="25"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
-      </c>
-      <c r="L70" t="str">
-        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5731</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5731</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5731</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5731</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5731</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5731</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5892</v>
       </c>
@@ -5083,55 +5096,55 @@
         <v>200</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K71" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L71" t="str">
         <f t="shared" si="25"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
-      </c>
-      <c r="L71" t="str">
-        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5892</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5892</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5892</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5892</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5892</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5892</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6092</v>
       </c>
@@ -5148,55 +5161,55 @@
         <v>500</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K72" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L72" t="str">
         <f t="shared" si="25"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
-      </c>
-      <c r="L72" t="str">
-        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6092</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6092</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6092</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6092</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6092</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6092</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>8500</v>
       </c>
@@ -5213,58 +5226,58 @@
         <v>39</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G73" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H73" s="10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I73" s="10" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J73" s="10" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K73" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L73" t="str">
         <f t="shared" si="25"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
-      </c>
-      <c r="L73" t="str">
-        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8500</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8500</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8500</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8500</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8500</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8500</v>
       </c>
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
       <c r="T73" s="10"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>5304</v>
       </c>
@@ -5281,55 +5294,55 @@
         <v>100</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K74" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L74" t="str">
         <f t="shared" si="25"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
-      </c>
-      <c r="L74" t="str">
-        <f t="shared" si="19"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5304</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5304</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5304</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5304</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5304</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5304</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -5343,55 +5356,55 @@
         <v>200</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K75" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" ref="L75:Q90" si="26">"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;L$2&amp;" "&amp;$A75</f>
+        <f t="shared" ref="L75:Q90" si="32">"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;L$2&amp;" "&amp;$A75</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -5405,55 +5418,55 @@
         <v>500</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K76" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>5776</v>
       </c>
@@ -5470,58 +5483,58 @@
         <v>39</v>
       </c>
       <c r="F77" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G77" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H77" s="14" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I77" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J77" s="14" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K77" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L77" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5776</v>
       </c>
       <c r="M77" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5776</v>
       </c>
       <c r="N77" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5776</v>
       </c>
       <c r="O77" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5776</v>
       </c>
       <c r="P77" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5776</v>
       </c>
       <c r="Q77" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5776</v>
       </c>
       <c r="R77" s="14"/>
       <c r="S77" s="14"/>
       <c r="T77" s="14"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>984</v>
       </c>
@@ -5538,55 +5551,55 @@
         <v>100</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K78" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 984</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 984</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 984</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 984</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 984</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 984</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" t="s">
         <v>0</v>
@@ -5601,55 +5614,55 @@
         <v>200</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K79" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -5663,55 +5676,55 @@
         <v>500</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K80" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3724</v>
       </c>
@@ -5728,55 +5741,55 @@
         <v>39</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K81" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3724</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3724</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3724</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3724</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3724</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3724</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>9720</v>
       </c>
@@ -5793,55 +5806,55 @@
         <v>100</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K82" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9720</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9720</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9720</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9720</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9720</v>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9720</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -5855,55 +5868,55 @@
         <v>200</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K83" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O83" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q83" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -5917,55 +5930,55 @@
         <v>500</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K84" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O84" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -5979,55 +5992,55 @@
         <v>39</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K85" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M85" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O85" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q85" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -6041,55 +6054,55 @@
         <v>100</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K86" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M86" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O86" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -6103,55 +6116,55 @@
         <v>200</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K87" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M87" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O87" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -6165,55 +6178,55 @@
         <v>500</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K88" s="14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O88" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>0</v>
       </c>
@@ -6227,56 +6240,56 @@
         <v>39</v>
       </c>
       <c r="F89" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G89" s="14" t="str">
-        <f t="shared" ref="G89:G104" si="27">"Config.NoInclude/DataShapes/"&amp;E89&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G89:G104" si="33">"Config.NoInclude/DataShapes/"&amp;E89&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H89" s="14" t="str">
-        <f t="shared" ref="H89:H104" si="28">"Config.NoInclude/Engines/"&amp;B89&amp;"-"&amp;C89&amp;".xml"</f>
+        <f t="shared" ref="H89:H104" si="34">"Config.NoInclude/Engines/"&amp;B89&amp;"-"&amp;C89&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I89" s="14" t="str">
-        <f t="shared" ref="I89:I104" si="29">"Config.NoInclude/DataSets/"&amp;D89&amp;".xml"</f>
+        <f t="shared" ref="I89:I104" si="35">"Config.NoInclude/DataSets/"&amp;D89&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J89" s="14" t="str">
-        <f t="shared" ref="J89:J104" si="30">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
+        <f t="shared" ref="J89:J104" si="36">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K89" s="14" t="str">
-        <f t="shared" ref="K89:K104" si="31">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
+        <f t="shared" ref="K89:K104" si="37">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L89" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M89" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N89" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O89" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P89" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q89" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
         <v>0</v>
       </c>
@@ -6290,56 +6303,56 @@
         <v>39</v>
       </c>
       <c r="F90" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G90" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H90" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I90" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J90" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K90" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L90" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M90" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N90" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O90" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P90" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q90" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R90" s="14"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
         <v>0</v>
       </c>
@@ -6353,56 +6366,56 @@
         <v>39</v>
       </c>
       <c r="F91" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G91" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H91" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I91" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J91" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K91" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L91" s="14" t="str">
-        <f t="shared" ref="L91:Q104" si="32">"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;L$2&amp;" "&amp;$A91</f>
+        <f t="shared" ref="L91:Q104" si="38">"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;L$2&amp;" "&amp;$A91</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M91" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N91" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O91" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P91" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q91" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R91" s="14"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
         <v>0</v>
       </c>
@@ -6416,56 +6429,56 @@
         <v>39</v>
       </c>
       <c r="F92" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G92" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H92" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I92" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J92" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K92" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L92" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M92" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N92" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O92" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P92" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q92" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R92" s="14"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
         <v>0</v>
       </c>
@@ -6479,56 +6492,56 @@
         <v>100</v>
       </c>
       <c r="F93" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G93" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H93" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I93" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J93" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K93" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L93" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M93" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N93" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O93" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P93" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q93" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R93" s="14"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
         <v>0</v>
       </c>
@@ -6542,56 +6555,56 @@
         <v>100</v>
       </c>
       <c r="F94" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G94" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H94" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I94" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J94" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K94" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L94" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M94" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N94" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O94" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P94" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q94" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8135</v>
       </c>
@@ -6608,56 +6621,56 @@
         <v>100</v>
       </c>
       <c r="F95" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G95" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H95" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I95" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J95" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K95" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L95" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8135</v>
       </c>
       <c r="M95" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8135</v>
       </c>
       <c r="N95" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8135</v>
       </c>
       <c r="O95" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8135</v>
       </c>
       <c r="P95" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8135</v>
       </c>
       <c r="Q95" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8135</v>
       </c>
       <c r="R95" s="14"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
         <v>0</v>
       </c>
@@ -6671,56 +6684,56 @@
         <v>100</v>
       </c>
       <c r="F96" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G96" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H96" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I96" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J96" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K96" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L96" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M96" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N96" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O96" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P96" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q96" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R96" s="14"/>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
         <v>0</v>
       </c>
@@ -6734,56 +6747,56 @@
         <v>200</v>
       </c>
       <c r="F97" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G97" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H97" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I97" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J97" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K97" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L97" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M97" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N97" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O97" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P97" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q97" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R97" s="14"/>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
         <v>0</v>
       </c>
@@ -6797,56 +6810,56 @@
         <v>200</v>
       </c>
       <c r="F98" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G98" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H98" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I98" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J98" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K98" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L98" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M98" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N98" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O98" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P98" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q98" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R98" s="14"/>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
         <v>0</v>
       </c>
@@ -6860,56 +6873,56 @@
         <v>200</v>
       </c>
       <c r="F99" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G99" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H99" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I99" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J99" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K99" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L99" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M99" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N99" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O99" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P99" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q99" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R99" s="14"/>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
         <v>0</v>
       </c>
@@ -6923,56 +6936,56 @@
         <v>200</v>
       </c>
       <c r="F100" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G100" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H100" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I100" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J100" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K100" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L100" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M100" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N100" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O100" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P100" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q100" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R100" s="14"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
         <v>0</v>
       </c>
@@ -6986,56 +6999,56 @@
         <v>500</v>
       </c>
       <c r="F101" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G101" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H101" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I101" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J101" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K101" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L101" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M101" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N101" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O101" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P101" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q101" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R101" s="14"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
         <v>0</v>
       </c>
@@ -7049,56 +7062,56 @@
         <v>500</v>
       </c>
       <c r="F102" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G102" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H102" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I102" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J102" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K102" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L102" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M102" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N102" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O102" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P102" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q102" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R102" s="14"/>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
         <v>0</v>
       </c>
@@ -7112,56 +7125,56 @@
         <v>500</v>
       </c>
       <c r="F103" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G103" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H103" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I103" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J103" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K103" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L103" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M103" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N103" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O103" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P103" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q103" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R103" s="14"/>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
         <v>0</v>
       </c>
@@ -7175,57 +7188,97 @@
         <v>500</v>
       </c>
       <c r="F104" s="14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G104" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H104" s="14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I104" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J104" s="14" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K104" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L104" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M104" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="N104" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="O104" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="P104" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="Q104" s="14" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R104" s="14"/>
     </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:T88"/>
+  <autoFilter ref="A4:T104">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="SCGD"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1-1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="12000"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A5:T16">
+      <sortCondition ref="D5:D104"/>
+      <sortCondition ref="E5:E104"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A5:T88">
     <sortCondition descending="1" ref="B5:B88"/>
     <sortCondition ref="C5:C88"/>

--- a/TestSet21.xlsx
+++ b/TestSet21.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="53">
   <si>
     <t>SCGD</t>
   </si>
@@ -189,18 +189,6 @@
   </si>
   <si>
     <t>24000</t>
-  </si>
-  <si>
-    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 2416</t>
-  </si>
-  <si>
-    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4696</t>
-  </si>
-  <si>
-    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7252</t>
-  </si>
-  <si>
-    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3476</t>
   </si>
 </sst>
 </file>
@@ -658,13 +646,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O64" sqref="O64"/>
+      <selection pane="bottomRight" activeCell="J107" sqref="J107:J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4434,7 +4422,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2444</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6307</v>
       </c>
@@ -4499,7 +4487,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6307</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6827</v>
       </c>
@@ -4564,7 +4552,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6827</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7376</v>
       </c>
@@ -4629,7 +4617,7 @@
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7376</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" t="s">
         <v>0</v>
@@ -6226,7 +6214,10 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>10464</v>
+      </c>
       <c r="B89" t="s">
         <v>0</v>
       </c>
@@ -6240,56 +6231,59 @@
         <v>39</v>
       </c>
       <c r="F89" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G89" s="14" t="str">
-        <f t="shared" ref="G89:G104" si="33">"Config.NoInclude/DataShapes/"&amp;E89&amp;"-"&amp;"1.xml"</f>
+        <f>"Config.NoInclude/DataShapes/"&amp;E89&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H89" s="14" t="str">
-        <f t="shared" ref="H89:H104" si="34">"Config.NoInclude/Engines/"&amp;B89&amp;"-"&amp;C89&amp;".xml"</f>
+        <f>"Config.NoInclude/Engines/"&amp;B89&amp;"-"&amp;C89&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I89" s="14" t="str">
-        <f t="shared" ref="I89:I104" si="35">"Config.NoInclude/DataSets/"&amp;D89&amp;".xml"</f>
+        <f>"Config.NoInclude/DataSets/"&amp;D89&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J89" s="14" t="str">
-        <f t="shared" ref="J89:J104" si="36">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K89" s="14" t="str">
-        <f t="shared" ref="K89:K104" si="37">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L89" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;L$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 10464</v>
       </c>
       <c r="M89" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;M$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 10464</v>
       </c>
       <c r="N89" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;N$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 10464</v>
       </c>
       <c r="O89" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;O$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 10464</v>
       </c>
       <c r="P89" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;P$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 10464</v>
       </c>
       <c r="Q89" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;Q$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 10464</v>
       </c>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3012</v>
+      </c>
       <c r="B90" s="14" t="s">
         <v>0</v>
       </c>
@@ -6297,62 +6291,65 @@
         <v>49</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E90" s="6">
+        <v>100</v>
       </c>
       <c r="F90" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G90" s="14" t="str">
-        <f t="shared" si="33"/>
-        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E90&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H90" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f>"Config.NoInclude/Engines/"&amp;B90&amp;"-"&amp;C90&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I90" s="14" t="str">
-        <f t="shared" si="35"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D90&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J90" s="14" t="str">
-        <f t="shared" si="36"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G90&amp;" "&amp;I90&amp;" "&amp;H90</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K90" s="14" t="str">
-        <f t="shared" si="37"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G90&amp;" "&amp;I90&amp;" "&amp;H90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L90" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;L$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3012</v>
       </c>
       <c r="M90" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;M$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3012</v>
       </c>
       <c r="N90" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;N$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3012</v>
       </c>
       <c r="O90" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;O$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3012</v>
       </c>
       <c r="P90" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;P$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3012</v>
       </c>
       <c r="Q90" s="14" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;Q$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3012</v>
       </c>
       <c r="R90" s="14"/>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>6560</v>
+      </c>
       <c r="B91" s="14" t="s">
         <v>0</v>
       </c>
@@ -6360,62 +6357,65 @@
         <v>49</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F91" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G91" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E91&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H91" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f>"Config.NoInclude/Engines/"&amp;B91&amp;"-"&amp;C91&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I91" s="14" t="str">
-        <f t="shared" si="35"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D91&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J91" s="14" t="str">
-        <f t="shared" si="36"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G91&amp;" "&amp;I91&amp;" "&amp;H91</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K91" s="14" t="str">
-        <f t="shared" si="37"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G91&amp;" "&amp;I91&amp;" "&amp;H91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L91" s="14" t="str">
-        <f t="shared" ref="L91:Q104" si="38">"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;L$2&amp;" "&amp;$A91</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;L$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6560</v>
       </c>
       <c r="M91" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;M$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6560</v>
       </c>
       <c r="N91" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;N$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6560</v>
       </c>
       <c r="O91" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;O$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6560</v>
       </c>
       <c r="P91" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;P$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6560</v>
       </c>
       <c r="Q91" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;Q$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6560</v>
       </c>
       <c r="R91" s="14"/>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5371</v>
+      </c>
       <c r="B92" s="14" t="s">
         <v>0</v>
       </c>
@@ -6423,62 +6423,65 @@
         <v>49</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="E92" s="6">
+        <v>100</v>
       </c>
       <c r="F92" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G92" s="14" t="str">
-        <f t="shared" si="33"/>
-        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E92&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H92" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f>"Config.NoInclude/Engines/"&amp;B92&amp;"-"&amp;C92&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I92" s="14" t="str">
-        <f t="shared" si="35"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D92&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J92" s="14" t="str">
-        <f t="shared" si="36"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G92&amp;" "&amp;I92&amp;" "&amp;H92</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K92" s="14" t="str">
-        <f t="shared" si="37"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G92&amp;" "&amp;I92&amp;" "&amp;H92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L92" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;L$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5371</v>
       </c>
       <c r="M92" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;M$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5371</v>
       </c>
       <c r="N92" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;N$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5371</v>
       </c>
       <c r="O92" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;O$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5371</v>
       </c>
       <c r="P92" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;P$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5371</v>
       </c>
       <c r="Q92" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;Q$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5371</v>
       </c>
       <c r="R92" s="14"/>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>6012</v>
+      </c>
       <c r="B93" s="14" t="s">
         <v>0</v>
       </c>
@@ -6486,62 +6489,65 @@
         <v>49</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="6">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="F93" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G93" s="14" t="str">
-        <f t="shared" si="33"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E93&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H93" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f>"Config.NoInclude/Engines/"&amp;B93&amp;"-"&amp;C93&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I93" s="14" t="str">
-        <f t="shared" si="35"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D93&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J93" s="14" t="str">
-        <f t="shared" si="36"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G93&amp;" "&amp;I93&amp;" "&amp;H93</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K93" s="14" t="str">
-        <f t="shared" si="37"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G93&amp;" "&amp;I93&amp;" "&amp;H93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L93" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;L$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6012</v>
       </c>
       <c r="M93" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;M$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6012</v>
       </c>
       <c r="N93" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;N$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6012</v>
       </c>
       <c r="O93" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;O$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6012</v>
       </c>
       <c r="P93" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;P$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6012</v>
       </c>
       <c r="Q93" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;Q$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6012</v>
       </c>
       <c r="R93" s="14"/>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>8135</v>
+      </c>
       <c r="B94" s="14" t="s">
         <v>0</v>
       </c>
@@ -6549,64 +6555,64 @@
         <v>49</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E94" s="6">
         <v>100</v>
       </c>
       <c r="F94" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G94" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E94&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H94" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f>"Config.NoInclude/Engines/"&amp;B94&amp;"-"&amp;C94&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I94" s="14" t="str">
-        <f t="shared" si="35"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D94&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J94" s="14" t="str">
-        <f t="shared" si="36"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G94&amp;" "&amp;I94&amp;" "&amp;H94</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K94" s="14" t="str">
-        <f t="shared" si="37"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G94&amp;" "&amp;I94&amp;" "&amp;H94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L94" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;L$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8135</v>
       </c>
       <c r="M94" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;M$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8135</v>
       </c>
       <c r="N94" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;N$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8135</v>
       </c>
       <c r="O94" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;O$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8135</v>
       </c>
       <c r="P94" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;P$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8135</v>
       </c>
       <c r="Q94" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;Q$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8135</v>
       </c>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>8135</v>
+        <v>7483</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>0</v>
@@ -6615,62 +6621,65 @@
         <v>49</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E95" s="6">
-        <v>100</v>
+        <v>52</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="F95" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G95" s="14" t="str">
-        <f t="shared" si="33"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E95&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H95" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f>"Config.NoInclude/Engines/"&amp;B95&amp;"-"&amp;C95&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I95" s="14" t="str">
-        <f t="shared" si="35"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D95&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J95" s="14" t="str">
-        <f t="shared" si="36"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G95&amp;" "&amp;I95&amp;" "&amp;H95</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K95" s="14" t="str">
-        <f t="shared" si="37"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G95&amp;" "&amp;I95&amp;" "&amp;H95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L95" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8135</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;L$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7483</v>
       </c>
       <c r="M95" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8135</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;M$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7483</v>
       </c>
       <c r="N95" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8135</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;N$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7483</v>
       </c>
       <c r="O95" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8135</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;O$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7483</v>
       </c>
       <c r="P95" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8135</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;P$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7483</v>
       </c>
       <c r="Q95" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8135</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;Q$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7483</v>
       </c>
       <c r="R95" s="14"/>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>40</v>
+      </c>
       <c r="B96" s="14" t="s">
         <v>0</v>
       </c>
@@ -6684,52 +6693,52 @@
         <v>100</v>
       </c>
       <c r="F96" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G96" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E96&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H96" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f>"Config.NoInclude/Engines/"&amp;B96&amp;"-"&amp;C96&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I96" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D96&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J96" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G96&amp;" "&amp;I96&amp;" "&amp;H96</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K96" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G96&amp;" "&amp;I96&amp;" "&amp;H96</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L96" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;L$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
       </c>
       <c r="M96" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;M$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
       </c>
       <c r="N96" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;N$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
       </c>
       <c r="O96" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;O$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
       </c>
       <c r="P96" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;P$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
       </c>
       <c r="Q96" s="14" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;Q$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
       </c>
       <c r="R96" s="14"/>
     </row>
@@ -6751,27 +6760,27 @@
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G97" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="G89:G104" si="33">"Config.NoInclude/DataShapes/"&amp;E97&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H97" s="14" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="H89:H104" si="34">"Config.NoInclude/Engines/"&amp;B97&amp;"-"&amp;C97&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="I97" s="14" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="I89:I104" si="35">"Config.NoInclude/DataSets/"&amp;D97&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J97" s="14" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="J89:J104" si="36">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G97&amp;" "&amp;I97&amp;" "&amp;H97</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="K97" s="14" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="K89:K104" si="37">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G97&amp;" "&amp;I97&amp;" "&amp;H97</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
       </c>
       <c r="L97" s="14" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="L91:Q104" si="38">"zzz Infer "&amp;$A$2&amp;" "&amp;$F97&amp;" "&amp;L$2&amp;" "&amp;$A97</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="M97" s="14" t="str">
@@ -7236,26 +7245,6 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="R104" s="14"/>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J108" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J110" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:T104">
@@ -7266,16 +7255,18 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="1-1"/>
+        <filter val="2-2-1Deep"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
+    <filterColumn colId="4">
       <filters>
-        <filter val="12000"/>
+        <filter val="100"/>
+        <filter val="050"/>
       </filters>
     </filterColumn>
-    <sortState ref="A5:T16">
+    <sortState ref="A89:T96">
       <sortCondition ref="D5:D104"/>
+      <sortCondition ref="G5:G104"/>
       <sortCondition ref="E5:E104"/>
     </sortState>
   </autoFilter>

--- a/TestSet21.xlsx
+++ b/TestSet21.xlsx
@@ -14,10 +14,11 @@
   <sheets>
     <sheet name="21-Desc" sheetId="2" r:id="rId1"/>
     <sheet name="21-Scripts" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$S$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$T$104</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="53">
   <si>
     <t>SCGD</t>
   </si>
@@ -169,10 +170,25 @@
     <t>Config.NoInclude/DataSets/i0c-bsc1.xml</t>
   </si>
   <si>
-    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5764</t>
+    <t>Client XML:</t>
   </si>
   <si>
-    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</t>
+    <t>Simulation Id:</t>
+  </si>
+  <si>
+    <t>INS Infer Dataset</t>
+  </si>
+  <si>
+    <t>2-2-1Deep</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>24000</t>
   </si>
 </sst>
 </file>
@@ -210,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -218,20 +234,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -248,13 +255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -268,6 +268,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +555,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,13 +646,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="64" topLeftCell="H89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
-      <selection pane="bottomRight" activeCell="J89" sqref="J89"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="J107" sqref="J107:J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,61 +667,67 @@
     <col min="8" max="8" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" customWidth="1"/>
-    <col min="12" max="16" width="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" customWidth="1"/>
+    <col min="13" max="14" width="32" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K3" s="4"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -748,45 +758,45 @@
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="str">
-        <f>RIGHT(K2,LEN(K2)-26)</f>
+      <c r="L4" s="2" t="str">
+        <f>RIGHT(L2,LEN(L2)-26)</f>
         <v>i0.xml</v>
       </c>
-      <c r="L4" s="2" t="str">
-        <f t="shared" ref="L4:S4" si="0">RIGHT(L2,LEN(L2)-26)</f>
+      <c r="M4" s="2" t="str">
+        <f t="shared" ref="M4:T4" si="0">RIGHT(M2,LEN(M2)-26)</f>
         <v>i1.xml</v>
       </c>
-      <c r="M4" s="2" t="str">
+      <c r="N4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i2.xml</v>
       </c>
-      <c r="N4" s="2" t="str">
+      <c r="O4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0a.xml</v>
       </c>
-      <c r="O4" s="2" t="str">
+      <c r="P4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0b.xml</v>
       </c>
-      <c r="P4" s="2" t="str">
+      <c r="Q4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0c.xml</v>
       </c>
-      <c r="Q4" s="2" t="str">
+      <c r="R4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0a-bsc1.xml</v>
       </c>
-      <c r="R4" s="2" t="str">
+      <c r="S4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0b-bsc1.xml</v>
       </c>
-      <c r="S4" s="2" t="str">
+      <c r="T4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>i0c-bsc1.xml</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>6556</v>
       </c>
       <c r="B5" t="s">
@@ -802,51 +812,55 @@
         <v>39</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F36" si="1">"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F5:F16" si="1">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G36" si="2">"Config.NoInclude/DataShapes/"&amp;E5&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G5:G16" si="2">"Config.NoInclude/DataShapes/"&amp;E5&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H36" si="3">"Config.NoInclude/Engines/"&amp;B5&amp;"-"&amp;C5&amp;".xml"</f>
+        <f t="shared" ref="H5:H16" si="3">"Config.NoInclude/Engines/"&amp;B5&amp;"-"&amp;C5&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I36" si="4">"Config.NoInclude/DataSets/"&amp;D5&amp;".xml"</f>
+        <f t="shared" ref="I5:I16" si="4">"Config.NoInclude/DataSets/"&amp;D5&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J36" si="5">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
+        <f t="shared" ref="J5:J16" si="5">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" ref="K5:P20" si="6">"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;K$2&amp;" "&amp;$A5</f>
+      <c r="K5" s="14" t="str">
+        <f t="shared" ref="K5:K16" si="6">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:Q16" si="7">"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;L$2&amp;" "&amp;$A5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6556</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" si="6"/>
+      <c r="M5" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6556</v>
       </c>
-      <c r="M5" t="str">
-        <f t="shared" si="6"/>
+      <c r="N5" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6556</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="6"/>
+      <c r="O5" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6556</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" si="6"/>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6556</v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q5" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6556</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9048</v>
       </c>
@@ -882,103 +896,111 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" s="14" t="str">
         <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9048</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="6"/>
+      <c r="M6" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9048</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" si="6"/>
+      <c r="N6" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9048</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" si="6"/>
+      <c r="O6" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9048</v>
       </c>
-      <c r="O6" t="str">
-        <f t="shared" si="6"/>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9048</v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q6" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9048</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>5368</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>2</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <v>200</v>
       </c>
-      <c r="F7" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G7" s="13" t="str">
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G7" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
-      <c r="H7" s="13" t="str">
+      <c r="H7" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="I7" s="13" t="str">
+      <c r="I7" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" s="14" t="str">
         <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5368</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" si="6"/>
+      <c r="M7" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5368</v>
       </c>
-      <c r="M7" t="str">
-        <f t="shared" si="6"/>
+      <c r="N7" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5368</v>
       </c>
-      <c r="N7" t="str">
-        <f t="shared" si="6"/>
+      <c r="O7" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5368</v>
       </c>
-      <c r="O7" t="str">
-        <f t="shared" si="6"/>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5368</v>
       </c>
-      <c r="P7" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q7" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5368</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1624</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <v>2</v>
       </c>
       <c r="D8" s="6">
@@ -1007,32 +1029,36 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8" s="14" t="str">
         <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1624</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="6"/>
+      <c r="M8" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1624</v>
       </c>
-      <c r="M8" t="str">
-        <f t="shared" si="6"/>
+      <c r="N8" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1624</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" si="6"/>
+      <c r="O8" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1624</v>
       </c>
-      <c r="O8" t="str">
-        <f t="shared" si="6"/>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1624</v>
       </c>
-      <c r="P8" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q8" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1624</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9368</v>
       </c>
@@ -1068,32 +1094,36 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9" s="14" t="str">
         <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9368</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="6"/>
+      <c r="M9" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9368</v>
       </c>
-      <c r="M9" t="str">
-        <f t="shared" si="6"/>
+      <c r="N9" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9368</v>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" si="6"/>
+      <c r="O9" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9368</v>
       </c>
-      <c r="O9" t="str">
-        <f t="shared" si="6"/>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9368</v>
       </c>
-      <c r="P9" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q9" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9368</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3400</v>
       </c>
@@ -1129,32 +1159,36 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10" s="14" t="str">
         <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3400</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" si="6"/>
+      <c r="M10" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3400</v>
       </c>
-      <c r="M10" t="str">
-        <f t="shared" si="6"/>
+      <c r="N10" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3400</v>
       </c>
-      <c r="N10" t="str">
-        <f t="shared" si="6"/>
+      <c r="O10" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3400</v>
       </c>
-      <c r="O10" t="str">
-        <f t="shared" si="6"/>
+      <c r="P10" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3400</v>
       </c>
-      <c r="P10" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q10" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9372</v>
       </c>
@@ -1190,32 +1224,36 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11" s="14" t="str">
         <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9372</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" si="6"/>
+      <c r="M11" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9372</v>
       </c>
-      <c r="M11" t="str">
-        <f t="shared" si="6"/>
+      <c r="N11" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9372</v>
       </c>
-      <c r="N11" t="str">
-        <f t="shared" si="6"/>
+      <c r="O11" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9372</v>
       </c>
-      <c r="O11" t="str">
-        <f t="shared" si="6"/>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9372</v>
       </c>
-      <c r="P11" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q11" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9372</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3576</v>
       </c>
@@ -1251,32 +1289,36 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12" s="14" t="str">
         <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3576</v>
       </c>
-      <c r="L12" t="str">
-        <f t="shared" si="6"/>
+      <c r="M12" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3576</v>
       </c>
-      <c r="M12" t="str">
-        <f t="shared" si="6"/>
+      <c r="N12" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3576</v>
       </c>
-      <c r="N12" t="str">
-        <f t="shared" si="6"/>
+      <c r="O12" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3576</v>
       </c>
-      <c r="O12" t="str">
-        <f t="shared" si="6"/>
+      <c r="P12" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3576</v>
       </c>
-      <c r="P12" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q12" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3576</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1980</v>
       </c>
@@ -1312,32 +1354,36 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13" s="14" t="str">
         <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1980</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="6"/>
+      <c r="M13" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1980</v>
       </c>
-      <c r="M13" t="str">
-        <f t="shared" si="6"/>
+      <c r="N13" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1980</v>
       </c>
-      <c r="N13" t="str">
-        <f t="shared" si="6"/>
+      <c r="O13" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1980</v>
       </c>
-      <c r="O13" t="str">
-        <f t="shared" si="6"/>
+      <c r="P13" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1980</v>
       </c>
-      <c r="P13" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q13" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1980</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8052</v>
       </c>
@@ -1373,32 +1419,36 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14" s="14" t="str">
         <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8052</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" si="6"/>
+      <c r="M14" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8052</v>
       </c>
-      <c r="M14" t="str">
-        <f t="shared" si="6"/>
+      <c r="N14" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8052</v>
       </c>
-      <c r="N14" t="str">
-        <f t="shared" si="6"/>
+      <c r="O14" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8052</v>
       </c>
-      <c r="O14" t="str">
-        <f t="shared" si="6"/>
+      <c r="P14" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8052</v>
       </c>
-      <c r="P14" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q14" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8052</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5532</v>
       </c>
@@ -1434,34 +1484,38 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15" s="14" t="str">
         <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5532</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="6"/>
+      <c r="M15" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5532</v>
       </c>
-      <c r="M15" t="str">
-        <f t="shared" si="6"/>
+      <c r="N15" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5532</v>
       </c>
-      <c r="N15" t="str">
-        <f t="shared" si="6"/>
+      <c r="O15" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5532</v>
       </c>
-      <c r="O15" t="str">
-        <f t="shared" si="6"/>
+      <c r="P15" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5532</v>
       </c>
-      <c r="P15" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q15" t="str">
+        <f t="shared" si="7"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5532</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>6348</v>
+        <v>5656</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1495,32 +1549,36 @@
         <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6348</v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6348</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5656</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6348</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5656</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6348</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5656</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6348</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5656</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5656</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9488</v>
       </c>
@@ -1537,51 +1595,55 @@
         <v>39</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F17:F36" si="8">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G17:G36" si="9">"Config.NoInclude/DataShapes/"&amp;E17&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H17:H36" si="10">"Config.NoInclude/Engines/"&amp;B17&amp;"-"&amp;C17&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I17:I36" si="11">"Config.NoInclude/DataSets/"&amp;D17&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J17:J36" si="12">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G17&amp;" "&amp;I17&amp;" "&amp;H17</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="6"/>
+      <c r="K17" s="14" t="str">
+        <f t="shared" ref="K17:K36" si="13">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G17&amp;" "&amp;I17&amp;" "&amp;H17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" ref="L17:Q24" si="14">"zzz Infer "&amp;$A$2&amp;" "&amp;$F17&amp;" "&amp;L$2&amp;" "&amp;$A17</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9488</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="6"/>
+      <c r="M17" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9488</v>
       </c>
-      <c r="M17" t="str">
-        <f t="shared" si="6"/>
+      <c r="N17" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9488</v>
       </c>
-      <c r="N17" t="str">
-        <f t="shared" si="6"/>
+      <c r="O17" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9488</v>
       </c>
-      <c r="O17" t="str">
-        <f t="shared" si="6"/>
+      <c r="P17" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9488</v>
       </c>
-      <c r="P17" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q17" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9488</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4616</v>
       </c>
@@ -1598,51 +1660,55 @@
         <v>100</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" si="6"/>
+      <c r="K18" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4616</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="6"/>
+      <c r="M18" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4616</v>
       </c>
-      <c r="M18" t="str">
-        <f t="shared" si="6"/>
+      <c r="N18" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4616</v>
       </c>
-      <c r="N18" t="str">
-        <f t="shared" si="6"/>
+      <c r="O18" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4616</v>
       </c>
-      <c r="O18" t="str">
-        <f t="shared" si="6"/>
+      <c r="P18" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4616</v>
       </c>
-      <c r="P18" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q18" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4616</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7656</v>
       </c>
@@ -1659,51 +1725,55 @@
         <v>200</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="6"/>
+      <c r="K19" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7656</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="6"/>
+      <c r="M19" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7656</v>
       </c>
-      <c r="M19" t="str">
-        <f t="shared" si="6"/>
+      <c r="N19" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7656</v>
       </c>
-      <c r="N19" t="str">
-        <f t="shared" si="6"/>
+      <c r="O19" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7656</v>
       </c>
-      <c r="O19" t="str">
-        <f t="shared" si="6"/>
+      <c r="P19" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7656</v>
       </c>
-      <c r="P19" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q19" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7656</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5340</v>
       </c>
@@ -1720,52 +1790,56 @@
         <v>39</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="6"/>
+      <c r="K20" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5340</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="6"/>
+      <c r="M20" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5340</v>
       </c>
-      <c r="M20" t="str">
-        <f t="shared" si="6"/>
+      <c r="N20" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5340</v>
       </c>
-      <c r="N20" t="str">
-        <f t="shared" si="6"/>
+      <c r="O20" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5340</v>
       </c>
-      <c r="O20" t="str">
-        <f t="shared" si="6"/>
+      <c r="P20" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5340</v>
       </c>
-      <c r="P20" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q20" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5340</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>9312</v>
       </c>
       <c r="B21" t="s">
@@ -1781,51 +1855,55 @@
         <v>100</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" ref="K21:P36" si="7">"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;K$2&amp;" "&amp;$A21</f>
+      <c r="K21" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9312</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="7"/>
+      <c r="M21" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9312</v>
       </c>
-      <c r="M21" t="str">
-        <f t="shared" si="7"/>
+      <c r="N21" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9312</v>
       </c>
-      <c r="N21" t="str">
-        <f t="shared" si="7"/>
+      <c r="O21" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9312</v>
       </c>
-      <c r="O21" t="str">
-        <f t="shared" si="7"/>
+      <c r="P21" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9312</v>
       </c>
-      <c r="P21" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q21" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9312</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3144</v>
       </c>
@@ -1842,51 +1920,55 @@
         <v>200</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" si="7"/>
+      <c r="K22" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3144</v>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="7"/>
+      <c r="M22" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3144</v>
       </c>
-      <c r="M22" t="str">
-        <f t="shared" si="7"/>
+      <c r="N22" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3144</v>
       </c>
-      <c r="N22" t="str">
-        <f t="shared" si="7"/>
+      <c r="O22" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3144</v>
       </c>
-      <c r="O22" t="str">
-        <f t="shared" si="7"/>
+      <c r="P22" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3144</v>
       </c>
-      <c r="P22" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q22" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3144</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7688</v>
       </c>
@@ -1903,51 +1985,55 @@
         <v>39</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K23" t="str">
-        <f t="shared" si="7"/>
+      <c r="K23" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7688</v>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="7"/>
+      <c r="M23" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7688</v>
       </c>
-      <c r="M23" t="str">
-        <f t="shared" si="7"/>
+      <c r="N23" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7688</v>
       </c>
-      <c r="N23" t="str">
-        <f t="shared" si="7"/>
+      <c r="O23" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7688</v>
       </c>
-      <c r="O23" t="str">
-        <f t="shared" si="7"/>
+      <c r="P23" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7688</v>
       </c>
-      <c r="P23" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q23" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7688</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3780</v>
       </c>
@@ -1964,51 +2050,55 @@
         <v>100</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K24" t="str">
-        <f t="shared" si="7"/>
+      <c r="K24" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3780</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="7"/>
+      <c r="M24" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3780</v>
       </c>
-      <c r="M24" t="str">
-        <f t="shared" si="7"/>
+      <c r="N24" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3780</v>
       </c>
-      <c r="N24" t="str">
-        <f t="shared" si="7"/>
+      <c r="O24" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3780</v>
       </c>
-      <c r="O24" t="str">
-        <f t="shared" si="7"/>
+      <c r="P24" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3780</v>
       </c>
-      <c r="P24" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q24" t="str">
+        <f t="shared" si="14"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3780</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>796</v>
       </c>
@@ -2025,51 +2115,55 @@
         <v>200</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" si="7"/>
+      <c r="K25" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" ref="L25:Q34" si="15">"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;L$2&amp;" "&amp;$A25</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 796</v>
       </c>
-      <c r="L25" t="str">
-        <f t="shared" si="7"/>
+      <c r="M25" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 796</v>
       </c>
-      <c r="M25" t="str">
-        <f t="shared" si="7"/>
+      <c r="N25" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 796</v>
       </c>
-      <c r="N25" t="str">
-        <f t="shared" si="7"/>
+      <c r="O25" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 796</v>
       </c>
-      <c r="O25" t="str">
-        <f t="shared" si="7"/>
+      <c r="P25" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 796</v>
       </c>
-      <c r="P25" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q25" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 796</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1340</v>
       </c>
@@ -2086,51 +2180,55 @@
         <v>39</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K26" t="str">
-        <f t="shared" si="7"/>
+      <c r="K26" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1340</v>
       </c>
-      <c r="L26" t="str">
-        <f t="shared" si="7"/>
+      <c r="M26" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1340</v>
       </c>
-      <c r="M26" t="str">
-        <f t="shared" si="7"/>
+      <c r="N26" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1340</v>
       </c>
-      <c r="N26" t="str">
-        <f t="shared" si="7"/>
+      <c r="O26" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1340</v>
       </c>
-      <c r="O26" t="str">
-        <f t="shared" si="7"/>
+      <c r="P26" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1340</v>
       </c>
-      <c r="P26" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q26" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1340</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8896</v>
       </c>
@@ -2147,51 +2245,55 @@
         <v>100</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" si="7"/>
+      <c r="K27" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8896</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" si="7"/>
+      <c r="M27" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8896</v>
       </c>
-      <c r="M27" t="str">
-        <f t="shared" si="7"/>
+      <c r="N27" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8896</v>
       </c>
-      <c r="N27" t="str">
-        <f t="shared" si="7"/>
+      <c r="O27" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8896</v>
       </c>
-      <c r="O27" t="str">
-        <f t="shared" si="7"/>
+      <c r="P27" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8896</v>
       </c>
-      <c r="P27" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q27" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8896</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5656</v>
       </c>
@@ -2208,113 +2310,121 @@
         <v>200</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" si="7"/>
+      <c r="K28" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5656</v>
       </c>
-      <c r="L28" t="str">
-        <f t="shared" si="7"/>
+      <c r="M28" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5656</v>
       </c>
-      <c r="M28" t="str">
-        <f t="shared" si="7"/>
+      <c r="N28" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5656</v>
       </c>
-      <c r="N28" t="str">
-        <f t="shared" si="7"/>
+      <c r="O28" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5656</v>
       </c>
-      <c r="O28" t="str">
-        <f t="shared" si="7"/>
+      <c r="P28" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5656</v>
       </c>
-      <c r="P28" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q28" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5656</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="29" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>2416</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G29" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="F29" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G29" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
-      <c r="H29" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="H29" s="10" t="str">
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="I29" s="8" t="str">
-        <f t="shared" si="4"/>
+      <c r="I29" s="10" t="str">
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
-      <c r="J29" s="8" t="str">
-        <f t="shared" si="5"/>
+      <c r="J29" s="10" t="str">
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" si="7"/>
+      <c r="K29" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L29" s="10" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 2416</v>
       </c>
-      <c r="L29" t="str">
-        <f t="shared" si="7"/>
+      <c r="M29" s="10" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 2416</v>
       </c>
-      <c r="M29" t="str">
-        <f t="shared" si="7"/>
+      <c r="N29" s="10" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 2416</v>
       </c>
-      <c r="N29" t="str">
-        <f t="shared" si="7"/>
+      <c r="O29" s="10" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 2416</v>
       </c>
-      <c r="O29" t="str">
-        <f t="shared" si="7"/>
+      <c r="P29" s="10" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 2416</v>
       </c>
-      <c r="P29" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q29" s="10" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2416</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>4696</v>
       </c>
       <c r="B30" t="s">
@@ -2330,52 +2440,56 @@
         <v>100</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" si="7"/>
+      <c r="K30" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4696</v>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" si="7"/>
+      <c r="M30" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4696</v>
       </c>
-      <c r="M30" t="str">
-        <f t="shared" si="7"/>
+      <c r="N30" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4696</v>
       </c>
-      <c r="N30" t="str">
-        <f t="shared" si="7"/>
+      <c r="O30" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4696</v>
       </c>
-      <c r="O30" t="str">
-        <f t="shared" si="7"/>
+      <c r="P30" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4696</v>
       </c>
-      <c r="P30" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q30" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4696</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B31" t="s">
@@ -2391,51 +2505,55 @@
         <v>200</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="7"/>
+      <c r="K31" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
       </c>
-      <c r="L31" t="str">
-        <f t="shared" si="7"/>
+      <c r="M31" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
       </c>
-      <c r="M31" t="str">
-        <f t="shared" si="7"/>
+      <c r="N31" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
       </c>
-      <c r="N31" t="str">
-        <f t="shared" si="7"/>
+      <c r="O31" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
       </c>
-      <c r="O31" t="str">
-        <f t="shared" si="7"/>
+      <c r="P31" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
       </c>
-      <c r="P31" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q31" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7252</v>
       </c>
@@ -2452,51 +2570,55 @@
         <v>39</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="7"/>
+      <c r="K32" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7252</v>
       </c>
-      <c r="L32" t="str">
-        <f t="shared" si="7"/>
+      <c r="M32" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7252</v>
       </c>
-      <c r="M32" t="str">
-        <f t="shared" si="7"/>
+      <c r="N32" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7252</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="7"/>
+      <c r="O32" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7252</v>
       </c>
-      <c r="O32" t="str">
-        <f t="shared" si="7"/>
+      <c r="P32" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7252</v>
       </c>
-      <c r="P32" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q32" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7252</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4880</v>
       </c>
@@ -2513,52 +2635,56 @@
         <v>100</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="7"/>
+      <c r="K33" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4880</v>
       </c>
-      <c r="L33" t="str">
-        <f t="shared" si="7"/>
+      <c r="M33" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4880</v>
       </c>
-      <c r="M33" t="str">
-        <f t="shared" si="7"/>
+      <c r="N33" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4880</v>
       </c>
-      <c r="N33" t="str">
-        <f t="shared" si="7"/>
+      <c r="O33" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4880</v>
       </c>
-      <c r="O33" t="str">
-        <f t="shared" si="7"/>
+      <c r="P33" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4880</v>
       </c>
-      <c r="P33" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q33" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4880</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
@@ -2574,51 +2700,55 @@
         <v>200</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="7"/>
+      <c r="K34" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
       </c>
-      <c r="L34" t="str">
-        <f t="shared" si="7"/>
+      <c r="M34" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
       </c>
-      <c r="M34" t="str">
-        <f t="shared" si="7"/>
+      <c r="N34" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
       </c>
-      <c r="N34" t="str">
-        <f t="shared" si="7"/>
+      <c r="O34" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
       </c>
-      <c r="O34" t="str">
-        <f t="shared" si="7"/>
+      <c r="P34" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
       </c>
-      <c r="P34" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q34" t="str">
+        <f t="shared" si="15"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3476</v>
       </c>
@@ -2635,51 +2765,55 @@
         <v>39</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="7"/>
+      <c r="K35" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" ref="L35:Q44" si="16">"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;L$2&amp;" "&amp;$A35</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3476</v>
       </c>
-      <c r="L35" t="str">
-        <f t="shared" si="7"/>
+      <c r="M35" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3476</v>
       </c>
-      <c r="M35" t="str">
-        <f t="shared" si="7"/>
+      <c r="N35" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3476</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="7"/>
+      <c r="O35" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3476</v>
       </c>
-      <c r="O35" t="str">
-        <f t="shared" si="7"/>
+      <c r="P35" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3476</v>
       </c>
-      <c r="P35" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q35" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3476</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -2693,52 +2827,57 @@
         <v>100</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="7"/>
+      <c r="K36" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L36" t="str">
-        <f t="shared" si="7"/>
+      <c r="M36" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M36" t="str">
-        <f t="shared" si="7"/>
+      <c r="N36" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N36" t="str">
-        <f t="shared" si="7"/>
+      <c r="O36" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O36" t="str">
-        <f t="shared" si="7"/>
+      <c r="P36" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P36" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q36" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2750,52 +2889,60 @@
       <c r="E37" s="6">
         <v>200</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" ref="F37:F68" si="8">"Config.NoInclude/Client.xml"</f>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" ref="G37:G68" si="9">"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
+      <c r="F37" s="14" t="str">
+        <f t="shared" ref="F37:F68" si="17">"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G37" s="14" t="str">
+        <f t="shared" ref="G37:G68" si="18">"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" ref="H37:H68" si="10">"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
+      <c r="H37" s="14" t="str">
+        <f t="shared" ref="H37:H68" si="19">"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="I37" t="str">
-        <f t="shared" ref="I37:I68" si="11">"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
+      <c r="I37" s="14" t="str">
+        <f t="shared" ref="I37:I68" si="20">"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
-      <c r="J37" t="str">
-        <f t="shared" ref="J37:J68" si="12">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
+      <c r="J37" s="14" t="str">
+        <f t="shared" ref="J37:J68" si="21">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" ref="K37:P52" si="13">"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;K$2&amp;" "&amp;$A37</f>
+      <c r="K37" s="14" t="str">
+        <f t="shared" ref="K37:K68" si="22">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L37" t="str">
-        <f t="shared" si="13"/>
+      <c r="M37" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M37" t="str">
-        <f t="shared" si="13"/>
+      <c r="N37" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N37" t="str">
-        <f t="shared" si="13"/>
+      <c r="O37" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O37" t="str">
-        <f t="shared" si="13"/>
+      <c r="P37" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P37" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q37" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
-    </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+    </row>
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
       <c r="B38" t="s">
         <v>3</v>
       </c>
@@ -2809,51 +2956,55 @@
         <v>39</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="13"/>
+      <c r="K38" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L38" t="str">
-        <f t="shared" si="13"/>
+      <c r="M38" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M38" t="str">
-        <f t="shared" si="13"/>
+      <c r="N38" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N38" t="str">
-        <f t="shared" si="13"/>
+      <c r="O38" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O38" t="str">
-        <f t="shared" si="13"/>
+      <c r="P38" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P38" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q38" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -2867,51 +3018,55 @@
         <v>100</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="13"/>
+      <c r="K39" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L39" t="str">
-        <f t="shared" si="13"/>
+      <c r="M39" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M39" t="str">
-        <f t="shared" si="13"/>
+      <c r="N39" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N39" t="str">
-        <f t="shared" si="13"/>
+      <c r="O39" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O39" t="str">
-        <f t="shared" si="13"/>
+      <c r="P39" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P39" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q39" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -2925,58 +3080,62 @@
         <v>200</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="13"/>
+      <c r="K40" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L40" t="str">
-        <f t="shared" si="13"/>
+      <c r="M40" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M40" t="str">
-        <f t="shared" si="13"/>
+      <c r="N40" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N40" t="str">
-        <f t="shared" si="13"/>
+      <c r="O40" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O40" t="str">
-        <f t="shared" si="13"/>
+      <c r="P40" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P40" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q40" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>5764</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="14">
         <v>2</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2986,58 +3145,62 @@
         <v>39</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="13"/>
+      <c r="K41" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5764</v>
       </c>
-      <c r="L41" t="str">
-        <f t="shared" si="13"/>
+      <c r="M41" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5764</v>
       </c>
-      <c r="M41" t="str">
-        <f t="shared" si="13"/>
+      <c r="N41" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5764</v>
       </c>
-      <c r="N41" t="str">
-        <f t="shared" si="13"/>
+      <c r="O41" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5764</v>
       </c>
-      <c r="O41" t="str">
-        <f t="shared" si="13"/>
+      <c r="P41" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5764</v>
       </c>
-      <c r="P41" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q41" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5764</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5648</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="14">
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -3047,180 +3210,192 @@
         <v>100</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="13"/>
+      <c r="K42" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5648</v>
       </c>
-      <c r="L42" t="str">
-        <f t="shared" si="13"/>
+      <c r="M42" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5648</v>
       </c>
-      <c r="M42" t="str">
-        <f t="shared" si="13"/>
+      <c r="N42" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5648</v>
       </c>
-      <c r="N42" t="str">
-        <f t="shared" si="13"/>
+      <c r="O42" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5648</v>
       </c>
-      <c r="O42" t="str">
-        <f t="shared" si="13"/>
+      <c r="P42" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5648</v>
       </c>
-      <c r="P42" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q42" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5648</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
         <v>6176</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="10">
         <v>2</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="13">
         <v>200</v>
       </c>
-      <c r="F43" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G43" s="13" t="str">
-        <f t="shared" si="9"/>
+      <c r="F43" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G43" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
-      <c r="H43" s="13" t="str">
-        <f t="shared" si="10"/>
+      <c r="H43" s="10" t="str">
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="I43" s="13" t="str">
-        <f t="shared" si="11"/>
+      <c r="I43" s="10" t="str">
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
-      <c r="J43" s="13" t="str">
-        <f t="shared" si="12"/>
+      <c r="J43" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K43" t="str">
-        <f t="shared" si="13"/>
+      <c r="K43" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6176</v>
       </c>
-      <c r="L43" t="str">
-        <f t="shared" si="13"/>
+      <c r="M43" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6176</v>
       </c>
-      <c r="M43" t="str">
-        <f t="shared" si="13"/>
+      <c r="N43" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6176</v>
       </c>
-      <c r="N43" t="str">
-        <f t="shared" si="13"/>
+      <c r="O43" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6176</v>
       </c>
-      <c r="O43" t="str">
-        <f t="shared" si="13"/>
+      <c r="P43" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6176</v>
       </c>
-      <c r="P43" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q43" t="str">
+        <f t="shared" si="16"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6176</v>
       </c>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-    </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="s">
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="10">
         <v>2</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="6">
         <v>500</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="13"/>
+      <c r="K44" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L44" t="str">
-        <f t="shared" si="13"/>
+      <c r="M44" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M44" t="str">
-        <f t="shared" si="13"/>
+      <c r="N44" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N44" t="str">
-        <f t="shared" si="13"/>
+      <c r="O44" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O44" t="str">
-        <f t="shared" si="13"/>
+      <c r="P44" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P44" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q44" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5356</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="14">
         <v>2</v>
       </c>
       <c r="D45" s="6">
@@ -3230,58 +3405,62 @@
         <v>39</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="13"/>
+      <c r="K45" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" ref="L45:Q54" si="23">"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;L$2&amp;" "&amp;$A45</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5356</v>
       </c>
-      <c r="L45" t="str">
-        <f t="shared" si="13"/>
+      <c r="M45" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5356</v>
       </c>
-      <c r="M45" t="str">
-        <f t="shared" si="13"/>
+      <c r="N45" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5356</v>
       </c>
-      <c r="N45" t="str">
-        <f t="shared" si="13"/>
+      <c r="O45" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5356</v>
       </c>
-      <c r="O45" t="str">
-        <f t="shared" si="13"/>
+      <c r="P45" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5356</v>
       </c>
-      <c r="P45" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q45" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5356</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>956</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="14">
         <v>2</v>
       </c>
       <c r="D46" s="6">
@@ -3291,58 +3470,62 @@
         <v>100</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" si="13"/>
+      <c r="K46" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 956</v>
       </c>
-      <c r="L46" t="str">
-        <f t="shared" si="13"/>
+      <c r="M46" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 956</v>
       </c>
-      <c r="M46" t="str">
-        <f t="shared" si="13"/>
+      <c r="N46" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 956</v>
       </c>
-      <c r="N46" t="str">
-        <f t="shared" si="13"/>
+      <c r="O46" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 956</v>
       </c>
-      <c r="O46" t="str">
-        <f t="shared" si="13"/>
+      <c r="P46" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 956</v>
       </c>
-      <c r="P46" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q46" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 956</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8195</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="14">
         <v>2</v>
       </c>
       <c r="D47" s="6">
@@ -3352,55 +3535,59 @@
         <v>200</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" si="13"/>
+      <c r="K47" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8195</v>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" si="13"/>
+      <c r="M47" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8195</v>
       </c>
-      <c r="M47" t="str">
-        <f t="shared" si="13"/>
+      <c r="N47" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8195</v>
       </c>
-      <c r="N47" t="str">
-        <f t="shared" si="13"/>
+      <c r="O47" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8195</v>
       </c>
-      <c r="O47" t="str">
-        <f t="shared" si="13"/>
+      <c r="P47" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8195</v>
       </c>
-      <c r="P47" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q47" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8195</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>0</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="14">
         <v>2</v>
       </c>
       <c r="D48" s="6">
@@ -3410,58 +3597,62 @@
         <v>500</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" si="13"/>
+      <c r="K48" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L48" t="str">
-        <f t="shared" si="13"/>
+      <c r="M48" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M48" t="str">
-        <f t="shared" si="13"/>
+      <c r="N48" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N48" t="str">
-        <f t="shared" si="13"/>
+      <c r="O48" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O48" t="str">
-        <f t="shared" si="13"/>
+      <c r="P48" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P48" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q48" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8064</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="14">
         <v>2</v>
       </c>
       <c r="D49" s="6">
@@ -3471,58 +3662,62 @@
         <v>39</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K49" t="str">
-        <f t="shared" si="13"/>
+      <c r="K49" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8064</v>
       </c>
-      <c r="L49" t="str">
-        <f t="shared" si="13"/>
+      <c r="M49" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8064</v>
       </c>
-      <c r="M49" t="str">
-        <f t="shared" si="13"/>
+      <c r="N49" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8064</v>
       </c>
-      <c r="N49" t="str">
-        <f t="shared" si="13"/>
+      <c r="O49" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8064</v>
       </c>
-      <c r="O49" t="str">
-        <f t="shared" si="13"/>
+      <c r="P49" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8064</v>
       </c>
-      <c r="P49" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q49" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8064</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6435</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="14">
         <v>2</v>
       </c>
       <c r="D50" s="6">
@@ -3532,58 +3727,62 @@
         <v>100</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K50" t="str">
-        <f t="shared" si="13"/>
+      <c r="K50" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6435</v>
       </c>
-      <c r="L50" t="str">
-        <f t="shared" si="13"/>
+      <c r="M50" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6435</v>
       </c>
-      <c r="M50" t="str">
-        <f t="shared" si="13"/>
+      <c r="N50" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6435</v>
       </c>
-      <c r="N50" t="str">
-        <f t="shared" si="13"/>
+      <c r="O50" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6435</v>
       </c>
-      <c r="O50" t="str">
-        <f t="shared" si="13"/>
+      <c r="P50" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6435</v>
       </c>
-      <c r="P50" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q50" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6435</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7476</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="14">
         <v>2</v>
       </c>
       <c r="D51" s="6">
@@ -3593,55 +3792,59 @@
         <v>200</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K51" t="str">
-        <f t="shared" si="13"/>
+      <c r="K51" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7476</v>
       </c>
-      <c r="L51" t="str">
-        <f t="shared" si="13"/>
+      <c r="M51" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7476</v>
       </c>
-      <c r="M51" t="str">
-        <f t="shared" si="13"/>
+      <c r="N51" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7476</v>
       </c>
-      <c r="N51" t="str">
-        <f t="shared" si="13"/>
+      <c r="O51" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7476</v>
       </c>
-      <c r="O51" t="str">
-        <f t="shared" si="13"/>
+      <c r="P51" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7476</v>
       </c>
-      <c r="P51" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q51" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7476</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>0</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="14">
         <v>2</v>
       </c>
       <c r="D52" s="6">
@@ -3651,51 +3854,55 @@
         <v>500</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K52" t="str">
-        <f t="shared" si="13"/>
+      <c r="K52" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L52" t="str">
-        <f t="shared" si="13"/>
+      <c r="M52" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M52" t="str">
-        <f t="shared" si="13"/>
+      <c r="N52" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N52" t="str">
-        <f t="shared" si="13"/>
+      <c r="O52" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O52" t="str">
-        <f t="shared" si="13"/>
+      <c r="P52" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P52" t="str">
-        <f t="shared" si="13"/>
+      <c r="Q52" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5212</v>
       </c>
@@ -3712,51 +3919,55 @@
         <v>39</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K53" t="str">
-        <f t="shared" ref="K53:P68" si="14">"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;K$2&amp;" "&amp;$A53</f>
+      <c r="K53" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5212</v>
       </c>
-      <c r="L53" t="str">
-        <f t="shared" si="14"/>
+      <c r="M53" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5212</v>
       </c>
-      <c r="M53" t="str">
-        <f t="shared" si="14"/>
+      <c r="N53" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5212</v>
       </c>
-      <c r="N53" t="str">
-        <f t="shared" si="14"/>
+      <c r="O53" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5212</v>
       </c>
-      <c r="O53" t="str">
-        <f t="shared" si="14"/>
+      <c r="P53" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5212</v>
       </c>
-      <c r="P53" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q53" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5212</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8636</v>
       </c>
@@ -3773,58 +3984,62 @@
         <v>100</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K54" t="str">
-        <f t="shared" si="14"/>
+      <c r="K54" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8636</v>
       </c>
-      <c r="L54" t="str">
-        <f t="shared" si="14"/>
+      <c r="M54" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8636</v>
       </c>
-      <c r="M54" t="str">
-        <f t="shared" si="14"/>
+      <c r="N54" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8636</v>
       </c>
-      <c r="N54" t="str">
-        <f t="shared" si="14"/>
+      <c r="O54" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8636</v>
       </c>
-      <c r="O54" t="str">
-        <f t="shared" si="14"/>
+      <c r="P54" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8636</v>
       </c>
-      <c r="P54" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q54" t="str">
+        <f t="shared" si="23"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8636</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
         <v>8420</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="14">
         <v>2</v>
       </c>
       <c r="D55" s="6">
@@ -3833,52 +4048,59 @@
       <c r="E55" s="6">
         <v>200</v>
       </c>
-      <c r="F55" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="9"/>
+      <c r="F55" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G55" s="14" t="str">
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" si="10"/>
+      <c r="H55" s="14" t="str">
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="I55" t="str">
-        <f t="shared" si="11"/>
+      <c r="I55" s="14" t="str">
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
-      <c r="J55" t="str">
-        <f t="shared" si="12"/>
+      <c r="J55" s="14" t="str">
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K55" t="str">
-        <f t="shared" si="14"/>
+      <c r="K55" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" ref="L55:Q64" si="24">"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;L$2&amp;" "&amp;$A55</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8420</v>
       </c>
-      <c r="L55" t="str">
-        <f t="shared" si="14"/>
+      <c r="M55" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8420</v>
       </c>
-      <c r="M55" t="str">
-        <f t="shared" si="14"/>
+      <c r="N55" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8420</v>
       </c>
-      <c r="N55" t="str">
-        <f t="shared" si="14"/>
+      <c r="O55" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8420</v>
       </c>
-      <c r="O55" t="str">
-        <f t="shared" si="14"/>
+      <c r="P55" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8420</v>
       </c>
-      <c r="P55" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q55" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8420</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+    </row>
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -3892,52 +4114,56 @@
         <v>500</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K56" t="str">
-        <f t="shared" si="14"/>
+      <c r="K56" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L56" t="str">
-        <f t="shared" si="14"/>
+      <c r="M56" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M56" t="str">
-        <f t="shared" si="14"/>
+      <c r="N56" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N56" t="str">
-        <f t="shared" si="14"/>
+      <c r="O56" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O56" t="str">
-        <f t="shared" si="14"/>
+      <c r="P56" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P56" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q56" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>5920</v>
       </c>
       <c r="B57" t="s">
@@ -3953,51 +4179,55 @@
         <v>39</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" si="14"/>
+      <c r="K57" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5920</v>
       </c>
-      <c r="L57" t="str">
-        <f t="shared" si="14"/>
+      <c r="M57" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5920</v>
       </c>
-      <c r="M57" t="str">
-        <f t="shared" si="14"/>
+      <c r="N57" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5920</v>
       </c>
-      <c r="N57" t="str">
-        <f t="shared" si="14"/>
+      <c r="O57" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5920</v>
       </c>
-      <c r="O57" t="str">
-        <f t="shared" si="14"/>
+      <c r="P57" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5920</v>
       </c>
-      <c r="P57" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q57" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5920</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4935</v>
       </c>
@@ -4014,51 +4244,55 @@
         <v>100</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K58" t="str">
-        <f t="shared" si="14"/>
+      <c r="K58" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4935</v>
       </c>
-      <c r="L58" t="str">
-        <f t="shared" si="14"/>
+      <c r="M58" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4935</v>
       </c>
-      <c r="M58" t="str">
-        <f t="shared" si="14"/>
+      <c r="N58" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4935</v>
       </c>
-      <c r="N58" t="str">
-        <f t="shared" si="14"/>
+      <c r="O58" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4935</v>
       </c>
-      <c r="O58" t="str">
-        <f t="shared" si="14"/>
+      <c r="P58" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4935</v>
       </c>
-      <c r="P58" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q58" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4935</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7360</v>
       </c>
@@ -4075,51 +4309,55 @@
         <v>200</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K59" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;K$2&amp;" "&amp;$A59</f>
+      <c r="K59" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7360</v>
       </c>
-      <c r="L59" t="str">
-        <f t="shared" si="14"/>
+      <c r="M59" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7360</v>
       </c>
-      <c r="M59" t="str">
-        <f t="shared" si="14"/>
+      <c r="N59" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7360</v>
       </c>
-      <c r="N59" t="str">
-        <f t="shared" si="14"/>
+      <c r="O59" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7360</v>
       </c>
-      <c r="O59" t="str">
-        <f t="shared" si="14"/>
+      <c r="P59" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7360</v>
       </c>
-      <c r="P59" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q59" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7360</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2444</v>
       </c>
@@ -4136,51 +4374,55 @@
         <v>500</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" ref="K60:P75" si="15">"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;K$2&amp;" "&amp;$A60</f>
+      <c r="K60" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 2444</v>
       </c>
-      <c r="L60" t="str">
-        <f t="shared" si="14"/>
+      <c r="M60" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 2444</v>
       </c>
-      <c r="M60" t="str">
-        <f t="shared" si="14"/>
+      <c r="N60" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 2444</v>
       </c>
-      <c r="N60" t="str">
-        <f t="shared" si="14"/>
+      <c r="O60" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 2444</v>
       </c>
-      <c r="O60" t="str">
-        <f t="shared" si="14"/>
+      <c r="P60" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 2444</v>
       </c>
-      <c r="P60" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q60" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2444</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6307</v>
       </c>
@@ -4197,51 +4439,55 @@
         <v>39</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K61" t="str">
-        <f t="shared" si="15"/>
+      <c r="K61" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6307</v>
       </c>
-      <c r="L61" t="str">
-        <f t="shared" si="14"/>
+      <c r="M61" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6307</v>
       </c>
-      <c r="M61" t="str">
-        <f t="shared" si="14"/>
+      <c r="N61" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6307</v>
       </c>
-      <c r="N61" t="str">
-        <f t="shared" si="14"/>
+      <c r="O61" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6307</v>
       </c>
-      <c r="O61" t="str">
-        <f t="shared" si="14"/>
+      <c r="P61" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6307</v>
       </c>
-      <c r="P61" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q61" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6307</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6827</v>
       </c>
@@ -4258,51 +4504,55 @@
         <v>100</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K62" t="str">
-        <f t="shared" si="15"/>
+      <c r="K62" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6827</v>
       </c>
-      <c r="L62" t="str">
-        <f t="shared" si="14"/>
+      <c r="M62" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6827</v>
       </c>
-      <c r="M62" t="str">
-        <f t="shared" si="14"/>
+      <c r="N62" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6827</v>
       </c>
-      <c r="N62" t="str">
-        <f t="shared" si="14"/>
+      <c r="O62" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6827</v>
       </c>
-      <c r="O62" t="str">
-        <f t="shared" si="14"/>
+      <c r="P62" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6827</v>
       </c>
-      <c r="P62" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q62" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6827</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7376</v>
       </c>
@@ -4319,51 +4569,56 @@
         <v>200</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K63" t="str">
-        <f t="shared" si="15"/>
+      <c r="K63" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7376</v>
       </c>
-      <c r="L63" t="str">
-        <f t="shared" si="14"/>
+      <c r="M63" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7376</v>
       </c>
-      <c r="M63" t="str">
-        <f t="shared" si="14"/>
+      <c r="N63" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7376</v>
       </c>
-      <c r="N63" t="str">
-        <f t="shared" si="14"/>
+      <c r="O63" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7376</v>
       </c>
-      <c r="O63" t="str">
-        <f t="shared" si="14"/>
+      <c r="P63" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7376</v>
       </c>
-      <c r="P63" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q63" t="str">
+        <f t="shared" si="24"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7376</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -4377,51 +4632,55 @@
         <v>500</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K64" t="str">
-        <f t="shared" si="15"/>
+      <c r="K64" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L64" t="str">
-        <f t="shared" si="14"/>
+      <c r="M64" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M64" t="str">
-        <f t="shared" si="14"/>
+      <c r="N64" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N64" t="str">
-        <f t="shared" si="14"/>
+      <c r="O64" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O64" t="str">
-        <f t="shared" si="14"/>
+      <c r="P64" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P64" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q64" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8892</v>
       </c>
@@ -4438,51 +4697,55 @@
         <v>39</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K65" t="str">
-        <f t="shared" si="15"/>
+      <c r="K65" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" ref="L65:Q74" si="25">"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;L$2&amp;" "&amp;$A65</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8892</v>
       </c>
-      <c r="L65" t="str">
-        <f t="shared" si="14"/>
+      <c r="M65" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8892</v>
       </c>
-      <c r="M65" t="str">
-        <f t="shared" si="14"/>
+      <c r="N65" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8892</v>
       </c>
-      <c r="N65" t="str">
-        <f t="shared" si="14"/>
+      <c r="O65" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8892</v>
       </c>
-      <c r="O65" t="str">
-        <f t="shared" si="14"/>
+      <c r="P65" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8892</v>
       </c>
-      <c r="P65" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q65" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8892</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6396</v>
       </c>
@@ -4499,51 +4762,55 @@
         <v>100</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K66" t="str">
-        <f t="shared" si="15"/>
+      <c r="K66" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6396</v>
       </c>
-      <c r="L66" t="str">
-        <f t="shared" si="14"/>
+      <c r="M66" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6396</v>
       </c>
-      <c r="M66" t="str">
-        <f t="shared" si="14"/>
+      <c r="N66" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6396</v>
       </c>
-      <c r="N66" t="str">
-        <f t="shared" si="14"/>
+      <c r="O66" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6396</v>
       </c>
-      <c r="O66" t="str">
-        <f t="shared" si="14"/>
+      <c r="P66" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6396</v>
       </c>
-      <c r="P66" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q66" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6396</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7532</v>
       </c>
@@ -4560,51 +4827,55 @@
         <v>200</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" si="15"/>
+      <c r="K67" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7532</v>
       </c>
-      <c r="L67" t="str">
-        <f t="shared" si="14"/>
+      <c r="M67" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7532</v>
       </c>
-      <c r="M67" t="str">
-        <f t="shared" si="14"/>
+      <c r="N67" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7532</v>
       </c>
-      <c r="N67" t="str">
-        <f t="shared" si="14"/>
+      <c r="O67" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7532</v>
       </c>
-      <c r="O67" t="str">
-        <f t="shared" si="14"/>
+      <c r="P67" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7532</v>
       </c>
-      <c r="P67" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q67" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7532</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -4618,51 +4889,55 @@
         <v>500</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K68" t="str">
-        <f t="shared" si="15"/>
+      <c r="K68" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L68" t="str">
-        <f t="shared" si="14"/>
+      <c r="M68" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M68" t="str">
-        <f t="shared" si="14"/>
+      <c r="N68" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N68" t="str">
-        <f t="shared" si="14"/>
+      <c r="O68" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O68" t="str">
-        <f t="shared" si="14"/>
+      <c r="P68" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P68" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q68" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1212</v>
       </c>
@@ -4679,51 +4954,55 @@
         <v>39</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" ref="F69:F89" si="16">"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F69:F104" si="26">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" ref="G69:G89" si="17">"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G69:G88" si="27">"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ref="H69:H89" si="18">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
+        <f t="shared" ref="H69:H88" si="28">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:I89" si="19">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
+        <f t="shared" ref="I69:I88" si="29">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J89" si="20">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <f t="shared" ref="J69:J88" si="30">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K69" t="str">
-        <f t="shared" si="15"/>
+      <c r="K69" s="14" t="str">
+        <f t="shared" ref="K69:K88" si="31">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1212</v>
       </c>
-      <c r="L69" t="str">
-        <f t="shared" si="15"/>
+      <c r="M69" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1212</v>
       </c>
-      <c r="M69" t="str">
-        <f t="shared" si="15"/>
+      <c r="N69" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1212</v>
       </c>
-      <c r="N69" t="str">
-        <f t="shared" si="15"/>
+      <c r="O69" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1212</v>
       </c>
-      <c r="O69" t="str">
-        <f t="shared" si="15"/>
+      <c r="P69" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1212</v>
       </c>
-      <c r="P69" t="str">
-        <f t="shared" si="15"/>
+      <c r="Q69" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1212</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5731</v>
       </c>
@@ -4740,51 +5019,55 @@
         <v>100</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K70" t="str">
-        <f t="shared" si="15"/>
+      <c r="K70" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5731</v>
       </c>
-      <c r="L70" t="str">
-        <f t="shared" si="15"/>
+      <c r="M70" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5731</v>
       </c>
-      <c r="M70" t="str">
-        <f t="shared" si="15"/>
+      <c r="N70" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5731</v>
       </c>
-      <c r="N70" t="str">
-        <f t="shared" si="15"/>
+      <c r="O70" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5731</v>
       </c>
-      <c r="O70" t="str">
-        <f t="shared" si="15"/>
+      <c r="P70" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5731</v>
       </c>
-      <c r="P70" t="str">
-        <f t="shared" si="15"/>
+      <c r="Q70" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5731</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5892</v>
       </c>
@@ -4801,51 +5084,58 @@
         <v>200</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" si="15"/>
+      <c r="K71" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5892</v>
       </c>
-      <c r="L71" t="str">
-        <f t="shared" si="15"/>
+      <c r="M71" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5892</v>
       </c>
-      <c r="M71" t="str">
-        <f t="shared" si="15"/>
+      <c r="N71" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5892</v>
       </c>
-      <c r="N71" t="str">
-        <f t="shared" si="15"/>
+      <c r="O71" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5892</v>
       </c>
-      <c r="O71" t="str">
-        <f t="shared" si="15"/>
+      <c r="P71" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5892</v>
       </c>
-      <c r="P71" t="str">
-        <f t="shared" si="15"/>
+      <c r="Q71" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5892</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>6092</v>
+      </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -4859,116 +5149,124 @@
         <v>500</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
-      <c r="K72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      <c r="K72" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6092</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6092</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6092</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6092</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6092</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="25"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6092</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
         <v>8500</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F73" s="13" t="str">
-        <f t="shared" si="16"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G73" s="13" t="str">
-        <f t="shared" si="17"/>
+      <c r="F73" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G73" s="10" t="str">
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
-      <c r="H73" s="13" t="str">
-        <f t="shared" si="18"/>
+      <c r="H73" s="10" t="str">
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="I73" s="13" t="str">
-        <f t="shared" si="19"/>
+      <c r="I73" s="10" t="str">
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
-      <c r="J73" s="13" t="str">
-        <f t="shared" si="20"/>
+      <c r="J73" s="10" t="str">
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K73" t="str">
-        <f t="shared" si="15"/>
+      <c r="K73" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8500</v>
       </c>
-      <c r="L73" t="str">
-        <f t="shared" si="15"/>
+      <c r="M73" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8500</v>
       </c>
-      <c r="M73" t="str">
-        <f t="shared" si="15"/>
+      <c r="N73" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8500</v>
       </c>
-      <c r="N73" t="str">
-        <f t="shared" si="15"/>
+      <c r="O73" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8500</v>
       </c>
-      <c r="O73" t="str">
-        <f t="shared" si="15"/>
+      <c r="P73" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8500</v>
       </c>
-      <c r="P73" t="str">
-        <f t="shared" si="15"/>
+      <c r="Q73" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8500</v>
       </c>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-    </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+    </row>
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
         <v>5304</v>
       </c>
       <c r="B74" t="s">
@@ -4984,51 +5282,55 @@
         <v>100</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K74" t="str">
-        <f t="shared" si="15"/>
+      <c r="K74" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5304</v>
       </c>
-      <c r="L74" t="str">
-        <f t="shared" si="15"/>
+      <c r="M74" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5304</v>
       </c>
-      <c r="M74" t="str">
-        <f t="shared" si="15"/>
+      <c r="N74" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5304</v>
       </c>
-      <c r="N74" t="str">
-        <f t="shared" si="15"/>
+      <c r="O74" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5304</v>
       </c>
-      <c r="O74" t="str">
-        <f t="shared" si="15"/>
+      <c r="P74" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5304</v>
       </c>
-      <c r="P74" t="str">
-        <f t="shared" si="15"/>
+      <c r="Q74" t="str">
+        <f t="shared" si="25"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5304</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -5042,51 +5344,55 @@
         <v>200</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K75" t="str">
-        <f t="shared" si="15"/>
+      <c r="K75" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" ref="L75:Q90" si="32">"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;L$2&amp;" "&amp;$A75</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L75" t="str">
-        <f t="shared" si="15"/>
+      <c r="M75" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M75" t="str">
-        <f t="shared" si="15"/>
+      <c r="N75" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N75" t="str">
-        <f t="shared" si="15"/>
+      <c r="O75" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O75" t="str">
-        <f t="shared" si="15"/>
+      <c r="P75" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P75" t="str">
-        <f t="shared" si="15"/>
+      <c r="Q75" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -5100,55 +5406,59 @@
         <v>500</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K76" t="str">
-        <f t="shared" ref="K76:P89" si="21">"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;K$2&amp;" "&amp;$A76</f>
+      <c r="K76" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L76" t="str">
-        <f t="shared" si="21"/>
+      <c r="M76" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M76" t="str">
-        <f t="shared" si="21"/>
+      <c r="N76" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N76" t="str">
-        <f t="shared" si="21"/>
+      <c r="O76" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O76" t="str">
-        <f t="shared" si="21"/>
+      <c r="P76" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P76" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q76" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
         <v>5776</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -5160,52 +5470,62 @@
       <c r="E77" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F77" t="str">
-        <f t="shared" si="16"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="17"/>
+      <c r="F77" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G77" s="14" t="str">
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
-      <c r="H77" t="str">
-        <f t="shared" si="18"/>
+      <c r="H77" s="14" t="str">
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="I77" t="str">
-        <f t="shared" si="19"/>
+      <c r="I77" s="14" t="str">
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
-      <c r="J77" t="str">
-        <f t="shared" si="20"/>
+      <c r="J77" s="14" t="str">
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K77" t="str">
-        <f t="shared" si="21"/>
+      <c r="K77" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L77" s="14" t="str">
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5776</v>
       </c>
-      <c r="L77" t="str">
-        <f t="shared" si="21"/>
+      <c r="M77" s="14" t="str">
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5776</v>
       </c>
-      <c r="M77" t="str">
-        <f t="shared" si="21"/>
+      <c r="N77" s="14" t="str">
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5776</v>
       </c>
-      <c r="N77" t="str">
-        <f t="shared" si="21"/>
+      <c r="O77" s="14" t="str">
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5776</v>
       </c>
-      <c r="O77" t="str">
-        <f t="shared" si="21"/>
+      <c r="P77" s="14" t="str">
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5776</v>
       </c>
-      <c r="P77" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q77" s="14" t="str">
+        <f t="shared" si="32"/>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5776</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+    </row>
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>984</v>
+      </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -5219,51 +5539,56 @@
         <v>100</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      <c r="K78" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 984</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 984</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 984</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 984</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 984</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 984</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -5277,51 +5602,55 @@
         <v>200</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K79" t="str">
-        <f t="shared" si="21"/>
+      <c r="K79" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L79" t="str">
-        <f t="shared" si="21"/>
+      <c r="M79" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M79" t="str">
-        <f t="shared" si="21"/>
+      <c r="N79" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N79" t="str">
-        <f t="shared" si="21"/>
+      <c r="O79" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O79" t="str">
-        <f t="shared" si="21"/>
+      <c r="P79" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P79" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q79" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -5335,51 +5664,58 @@
         <v>500</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K80" t="str">
-        <f t="shared" si="21"/>
+      <c r="K80" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L80" t="str">
-        <f t="shared" si="21"/>
+      <c r="M80" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M80" t="str">
-        <f t="shared" si="21"/>
+      <c r="N80" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N80" t="str">
-        <f t="shared" si="21"/>
+      <c r="O80" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O80" t="str">
-        <f t="shared" si="21"/>
+      <c r="P80" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P80" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q80" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3724</v>
+      </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -5393,51 +5729,58 @@
         <v>39</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      <c r="K81" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3724</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3724</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3724</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3724</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3724</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3724</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>9720</v>
+      </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -5451,51 +5794,55 @@
         <v>100</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      <c r="K82" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9720</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9720</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9720</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9720</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9720</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="32"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -5509,51 +5856,55 @@
         <v>200</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K83" t="str">
-        <f t="shared" si="21"/>
+      <c r="K83" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L83" t="str">
-        <f t="shared" si="21"/>
+      <c r="M83" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M83" t="str">
-        <f t="shared" si="21"/>
+      <c r="N83" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N83" t="str">
-        <f t="shared" si="21"/>
+      <c r="O83" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O83" t="str">
-        <f t="shared" si="21"/>
+      <c r="P83" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P83" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q83" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -5567,51 +5918,55 @@
         <v>500</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K84" t="str">
-        <f t="shared" si="21"/>
+      <c r="K84" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L84" t="str">
-        <f t="shared" si="21"/>
+      <c r="M84" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M84" t="str">
-        <f t="shared" si="21"/>
+      <c r="N84" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N84" t="str">
-        <f t="shared" si="21"/>
+      <c r="O84" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O84" t="str">
-        <f t="shared" si="21"/>
+      <c r="P84" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P84" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q84" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -5625,51 +5980,55 @@
         <v>39</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K85" t="str">
-        <f t="shared" si="21"/>
+      <c r="K85" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L85" t="str">
-        <f t="shared" si="21"/>
+      <c r="M85" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M85" t="str">
-        <f t="shared" si="21"/>
+      <c r="N85" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N85" t="str">
-        <f t="shared" si="21"/>
+      <c r="O85" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O85" t="str">
-        <f t="shared" si="21"/>
+      <c r="P85" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P85" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q85" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -5683,51 +6042,55 @@
         <v>100</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K86" t="str">
-        <f t="shared" si="21"/>
+      <c r="K86" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L86" t="str">
-        <f t="shared" si="21"/>
+      <c r="M86" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M86" t="str">
-        <f t="shared" si="21"/>
+      <c r="N86" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N86" t="str">
-        <f t="shared" si="21"/>
+      <c r="O86" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O86" t="str">
-        <f t="shared" si="21"/>
+      <c r="P86" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P86" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q86" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -5741,51 +6104,55 @@
         <v>200</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K87" t="str">
-        <f t="shared" si="21"/>
+      <c r="K87" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L87" t="str">
-        <f t="shared" si="21"/>
+      <c r="M87" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M87" t="str">
-        <f t="shared" si="21"/>
+      <c r="N87" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N87" t="str">
-        <f t="shared" si="21"/>
+      <c r="O87" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O87" t="str">
-        <f t="shared" si="21"/>
+      <c r="P87" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P87" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q87" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -5799,139 +6166,1109 @@
         <v>500</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K88" t="str">
-        <f t="shared" si="21"/>
+      <c r="K88" s="14" t="str">
+        <f t="shared" si="31"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L88" t="str">
-        <f t="shared" si="21"/>
+      <c r="M88" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M88" t="str">
-        <f t="shared" si="21"/>
+      <c r="N88" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N88" t="str">
-        <f t="shared" si="21"/>
+      <c r="O88" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O88" t="str">
-        <f t="shared" si="21"/>
+      <c r="P88" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P88" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q88" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="13">
-        <v>2</v>
-      </c>
-      <c r="D89" s="15" t="s">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>10464</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="14" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G89" s="14" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E89&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H89" s="14" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B89&amp;"-"&amp;C89&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I89" s="14" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D89&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J89" s="14" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K89" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L89" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;L$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 10464</v>
+      </c>
+      <c r="M89" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;M$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 10464</v>
+      </c>
+      <c r="N89" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;N$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 10464</v>
+      </c>
+      <c r="O89" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;O$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 10464</v>
+      </c>
+      <c r="P89" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;P$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 10464</v>
+      </c>
+      <c r="Q89" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;Q$2&amp;" "&amp;$A89</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 10464</v>
+      </c>
+      <c r="R89" s="14"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3012</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="6">
+        <v>100</v>
+      </c>
+      <c r="F90" s="14" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G90" s="14" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E90&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+      </c>
+      <c r="H90" s="14" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B90&amp;"-"&amp;C90&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I90" s="14" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D90&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J90" s="14" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G90&amp;" "&amp;I90&amp;" "&amp;H90</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K90" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G90&amp;" "&amp;I90&amp;" "&amp;H90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L90" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;L$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3012</v>
+      </c>
+      <c r="M90" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;M$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3012</v>
+      </c>
+      <c r="N90" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;N$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3012</v>
+      </c>
+      <c r="O90" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;O$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3012</v>
+      </c>
+      <c r="P90" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;P$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3012</v>
+      </c>
+      <c r="Q90" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;Q$2&amp;" "&amp;$A90</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3012</v>
+      </c>
+      <c r="R90" s="14"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>6560</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="14" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G91" s="14" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E91&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H91" s="14" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B91&amp;"-"&amp;C91&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I91" s="14" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D91&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J91" s="14" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G91&amp;" "&amp;I91&amp;" "&amp;H91</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K91" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G91&amp;" "&amp;I91&amp;" "&amp;H91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L91" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;L$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6560</v>
+      </c>
+      <c r="M91" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;M$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6560</v>
+      </c>
+      <c r="N91" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;N$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6560</v>
+      </c>
+      <c r="O91" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;O$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6560</v>
+      </c>
+      <c r="P91" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;P$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6560</v>
+      </c>
+      <c r="Q91" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;Q$2&amp;" "&amp;$A91</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6560</v>
+      </c>
+      <c r="R91" s="14"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5371</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92" s="6">
+        <v>100</v>
+      </c>
+      <c r="F92" s="14" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G92" s="14" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E92&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+      </c>
+      <c r="H92" s="14" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B92&amp;"-"&amp;C92&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I92" s="14" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D92&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J92" s="14" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G92&amp;" "&amp;I92&amp;" "&amp;H92</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K92" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G92&amp;" "&amp;I92&amp;" "&amp;H92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L92" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;L$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5371</v>
+      </c>
+      <c r="M92" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;M$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5371</v>
+      </c>
+      <c r="N92" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;N$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5371</v>
+      </c>
+      <c r="O92" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;O$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5371</v>
+      </c>
+      <c r="P92" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;P$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5371</v>
+      </c>
+      <c r="Q92" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;Q$2&amp;" "&amp;$A92</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5371</v>
+      </c>
+      <c r="R92" s="14"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>6012</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="14" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G93" s="14" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E93&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H93" s="14" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B93&amp;"-"&amp;C93&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I93" s="14" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D93&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J93" s="14" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G93&amp;" "&amp;I93&amp;" "&amp;H93</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K93" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G93&amp;" "&amp;I93&amp;" "&amp;H93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L93" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;L$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6012</v>
+      </c>
+      <c r="M93" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;M$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6012</v>
+      </c>
+      <c r="N93" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;N$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6012</v>
+      </c>
+      <c r="O93" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;O$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6012</v>
+      </c>
+      <c r="P93" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;P$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6012</v>
+      </c>
+      <c r="Q93" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;Q$2&amp;" "&amp;$A93</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6012</v>
+      </c>
+      <c r="R93" s="14"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>8135</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" s="6">
+        <v>100</v>
+      </c>
+      <c r="F94" s="14" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G94" s="14" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E94&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+      </c>
+      <c r="H94" s="14" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B94&amp;"-"&amp;C94&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I94" s="14" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D94&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J94" s="14" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G94&amp;" "&amp;I94&amp;" "&amp;H94</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K94" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G94&amp;" "&amp;I94&amp;" "&amp;H94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L94" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;L$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8135</v>
+      </c>
+      <c r="M94" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;M$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8135</v>
+      </c>
+      <c r="N94" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;N$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8135</v>
+      </c>
+      <c r="O94" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;O$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8135</v>
+      </c>
+      <c r="P94" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;P$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8135</v>
+      </c>
+      <c r="Q94" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;Q$2&amp;" "&amp;$A94</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8135</v>
+      </c>
+      <c r="R94" s="14"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>7483</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" s="14" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G95" s="14" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E95&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H95" s="14" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B95&amp;"-"&amp;C95&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I95" s="14" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D95&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J95" s="14" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G95&amp;" "&amp;I95&amp;" "&amp;H95</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K95" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G95&amp;" "&amp;I95&amp;" "&amp;H95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L95" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;L$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7483</v>
+      </c>
+      <c r="M95" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;M$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7483</v>
+      </c>
+      <c r="N95" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;N$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7483</v>
+      </c>
+      <c r="O95" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;O$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7483</v>
+      </c>
+      <c r="P95" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;P$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7483</v>
+      </c>
+      <c r="Q95" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;Q$2&amp;" "&amp;$A95</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7483</v>
+      </c>
+      <c r="R95" s="14"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" s="6">
+        <v>100</v>
+      </c>
+      <c r="F96" s="14" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G96" s="14" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E96&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+      </c>
+      <c r="H96" s="14" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B96&amp;"-"&amp;C96&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I96" s="14" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D96&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J96" s="14" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G96&amp;" "&amp;I96&amp;" "&amp;H96</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K96" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G96&amp;" "&amp;I96&amp;" "&amp;H96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L96" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;L$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
+      </c>
+      <c r="M96" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;M$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
+      </c>
+      <c r="N96" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;N$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
+      </c>
+      <c r="O96" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;O$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
+      </c>
+      <c r="P96" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;P$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
+      </c>
+      <c r="Q96" s="14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;Q$2&amp;" "&amp;$A96</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
+      </c>
+      <c r="R96" s="14"/>
+    </row>
+    <row r="97" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="6">
+        <v>200</v>
+      </c>
+      <c r="F97" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G97" s="14" t="str">
+        <f t="shared" ref="G89:G104" si="33">"Config.NoInclude/DataShapes/"&amp;E97&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="H97" s="14" t="str">
+        <f t="shared" ref="H89:H104" si="34">"Config.NoInclude/Engines/"&amp;B97&amp;"-"&amp;C97&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I97" s="14" t="str">
+        <f t="shared" ref="I89:I104" si="35">"Config.NoInclude/DataSets/"&amp;D97&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J97" s="14" t="str">
+        <f t="shared" ref="J89:J104" si="36">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G97&amp;" "&amp;I97&amp;" "&amp;H97</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K97" s="14" t="str">
+        <f t="shared" ref="K89:K104" si="37">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G97&amp;" "&amp;I97&amp;" "&amp;H97</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L97" s="14" t="str">
+        <f t="shared" ref="L91:Q104" si="38">"zzz Infer "&amp;$A$2&amp;" "&amp;$F97&amp;" "&amp;L$2&amp;" "&amp;$A97</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M97" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N97" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O97" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P97" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q97" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R97" s="14"/>
+    </row>
+    <row r="98" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" s="6">
+        <v>200</v>
+      </c>
+      <c r="F98" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G98" s="14" t="str">
+        <f t="shared" si="33"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="H98" s="14" t="str">
+        <f t="shared" si="34"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I98" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J98" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K98" s="14" t="str">
+        <f t="shared" si="37"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L98" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M98" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N98" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O98" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P98" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q98" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R98" s="14"/>
+    </row>
+    <row r="99" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" s="6">
+        <v>200</v>
+      </c>
+      <c r="F99" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G99" s="14" t="str">
+        <f t="shared" si="33"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="H99" s="14" t="str">
+        <f t="shared" si="34"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I99" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J99" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K99" s="14" t="str">
+        <f t="shared" si="37"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L99" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M99" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N99" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O99" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P99" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q99" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R99" s="14"/>
+    </row>
+    <row r="100" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" s="6">
+        <v>200</v>
+      </c>
+      <c r="F100" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G100" s="14" t="str">
+        <f t="shared" si="33"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="H100" s="14" t="str">
+        <f t="shared" si="34"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I100" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J100" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K100" s="14" t="str">
+        <f t="shared" si="37"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L100" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M100" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N100" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O100" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P100" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q100" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R100" s="14"/>
+    </row>
+    <row r="101" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="6">
         <v>500</v>
       </c>
-      <c r="F89" s="13" t="str">
-        <f t="shared" si="16"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G89" s="13" t="str">
-        <f t="shared" si="17"/>
+      <c r="F101" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G101" s="14" t="str">
+        <f t="shared" si="33"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
-      <c r="H89" s="13" t="str">
-        <f t="shared" si="18"/>
-        <v>Config.NoInclude/Engines/STD-2.xml</v>
-      </c>
-      <c r="I89" s="13" t="str">
-        <f t="shared" si="19"/>
+      <c r="H101" s="14" t="str">
+        <f t="shared" si="34"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I101" s="14" t="str">
+        <f t="shared" si="35"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
-      <c r="J89" s="13" t="str">
-        <f t="shared" si="20"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
-      </c>
-      <c r="K89" s="17" t="str">
-        <f t="shared" si="21"/>
+      <c r="J101" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K101" s="14" t="str">
+        <f t="shared" si="37"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L101" s="14" t="str">
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
-      <c r="L89" s="17" t="str">
-        <f t="shared" si="21"/>
+      <c r="M101" s="14" t="str">
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
-      <c r="M89" s="17" t="str">
-        <f t="shared" si="21"/>
+      <c r="N101" s="14" t="str">
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
-      <c r="N89" s="17" t="str">
-        <f t="shared" si="21"/>
+      <c r="O101" s="14" t="str">
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
-      <c r="O89" s="17" t="str">
-        <f t="shared" si="21"/>
+      <c r="P101" s="14" t="str">
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
-      <c r="P89" s="17" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q101" s="14" t="str">
+        <f t="shared" si="38"/>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P91" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P93" t="s">
-        <v>46</v>
-      </c>
+      <c r="R101" s="14"/>
+    </row>
+    <row r="102" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" s="6">
+        <v>500</v>
+      </c>
+      <c r="F102" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G102" s="14" t="str">
+        <f t="shared" si="33"/>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H102" s="14" t="str">
+        <f t="shared" si="34"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I102" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J102" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K102" s="14" t="str">
+        <f t="shared" si="37"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L102" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M102" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N102" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O102" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P102" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q102" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R102" s="14"/>
+    </row>
+    <row r="103" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="6">
+        <v>500</v>
+      </c>
+      <c r="F103" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G103" s="14" t="str">
+        <f t="shared" si="33"/>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H103" s="14" t="str">
+        <f t="shared" si="34"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I103" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J103" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K103" s="14" t="str">
+        <f t="shared" si="37"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L103" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M103" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N103" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O103" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P103" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q103" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R103" s="14"/>
+    </row>
+    <row r="104" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E104" s="6">
+        <v>500</v>
+      </c>
+      <c r="F104" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G104" s="14" t="str">
+        <f t="shared" si="33"/>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H104" s="14" t="str">
+        <f t="shared" si="34"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="I104" s="14" t="str">
+        <f t="shared" si="35"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J104" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="K104" s="14" t="str">
+        <f t="shared" si="37"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1Deep.xml</v>
+      </c>
+      <c r="L104" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
+      </c>
+      <c r="M104" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
+      </c>
+      <c r="N104" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
+      </c>
+      <c r="O104" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
+      </c>
+      <c r="P104" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
+      </c>
+      <c r="Q104" s="14" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+      <c r="R104" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:S88">
+  <autoFilter ref="A4:T104">
     <filterColumn colId="1">
       <filters>
-        <filter val="STD"/>
+        <filter val="SCGD"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="2"/>
+        <filter val="2-2-1Deep"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
+    <filterColumn colId="4">
       <filters>
-        <filter val="06000"/>
+        <filter val="100"/>
+        <filter val="050"/>
       </filters>
     </filterColumn>
+    <sortState ref="A89:T96">
+      <sortCondition ref="D5:D104"/>
+      <sortCondition ref="G5:G104"/>
+      <sortCondition ref="E5:E104"/>
+    </sortState>
   </autoFilter>
   <sortState ref="A5:T88">
     <sortCondition descending="1" ref="B5:B88"/>
@@ -5946,6 +7283,509 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="15" t="str">
+        <f t="shared" ref="B2" si="0">"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>7532</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;D$2&amp;" "&amp;$B4</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7532</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f>"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;E$2&amp;" "&amp;$B4</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7532</v>
+      </c>
+      <c r="F4" s="14" t="str">
+        <f>"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;F$2&amp;" "&amp;$B4</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7888</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f t="shared" ref="D5:F28" si="1">"zzz Infer "&amp;$B$1&amp;" "&amp;$B$2&amp;" "&amp;D$2&amp;" "&amp;$B5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7888</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7888</v>
+      </c>
+      <c r="F5" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1212</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 1212</v>
+      </c>
+      <c r="E6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 1212</v>
+      </c>
+      <c r="F6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 1212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5731</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5731</v>
+      </c>
+      <c r="E7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5731</v>
+      </c>
+      <c r="F7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5892</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5892</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5892</v>
+      </c>
+      <c r="F8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6092</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6092</v>
+      </c>
+      <c r="E9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6092</v>
+      </c>
+      <c r="F9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5764</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5764</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5764</v>
+      </c>
+      <c r="F10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5648</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5648</v>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5648</v>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6176</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6176</v>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6176</v>
+      </c>
+      <c r="F12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8193</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8193</v>
+      </c>
+      <c r="E13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8193</v>
+      </c>
+      <c r="F13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5356</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5356</v>
+      </c>
+      <c r="E14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5356</v>
+      </c>
+      <c r="F14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>956</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 956</v>
+      </c>
+      <c r="E15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 956</v>
+      </c>
+      <c r="F15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>8195</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8195</v>
+      </c>
+      <c r="E16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8195</v>
+      </c>
+      <c r="F16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>6692</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6692</v>
+      </c>
+      <c r="E17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6692</v>
+      </c>
+      <c r="F17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6692</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>8064</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8064</v>
+      </c>
+      <c r="E18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8064</v>
+      </c>
+      <c r="F18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8064</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>6435</v>
+      </c>
+      <c r="D19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 6435</v>
+      </c>
+      <c r="E19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 6435</v>
+      </c>
+      <c r="F19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 6435</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>7476</v>
+      </c>
+      <c r="D20" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7476</v>
+      </c>
+      <c r="E20" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7476</v>
+      </c>
+      <c r="F20" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7476</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1416</v>
+      </c>
+      <c r="D21" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 1416</v>
+      </c>
+      <c r="E21" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 1416</v>
+      </c>
+      <c r="F21" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 1416</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5212</v>
+      </c>
+      <c r="D22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5212</v>
+      </c>
+      <c r="E22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5212</v>
+      </c>
+      <c r="F22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5212</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>8636</v>
+      </c>
+      <c r="D23" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8636</v>
+      </c>
+      <c r="E23" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8636</v>
+      </c>
+      <c r="F23" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8636</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>8420</v>
+      </c>
+      <c r="D24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8420</v>
+      </c>
+      <c r="E24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8420</v>
+      </c>
+      <c r="F24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8420</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>7064</v>
+      </c>
+      <c r="D25" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 7064</v>
+      </c>
+      <c r="E25" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 7064</v>
+      </c>
+      <c r="F25" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 7064</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>8500</v>
+      </c>
+      <c r="D26" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 8500</v>
+      </c>
+      <c r="E26" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 8500</v>
+      </c>
+      <c r="F26" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 8500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>5304</v>
+      </c>
+      <c r="D27" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5304</v>
+      </c>
+      <c r="E27" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5304</v>
+      </c>
+      <c r="F27" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5304</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>5776</v>
+      </c>
+      <c r="D28" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml 5776</v>
+      </c>
+      <c r="E28" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml 5776</v>
+      </c>
+      <c r="F28" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml 5776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5976,7 +7816,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U5" s="17">
+      <c r="U5" s="14">
         <v>5764</v>
       </c>
       <c r="V5" t="str">
@@ -5985,7 +7825,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U6" s="17">
+      <c r="U6" s="14">
         <v>5648</v>
       </c>
     </row>
@@ -6011,7 +7851,7 @@
         <f t="shared" ref="F7:F22" si="2">"insert into DBConnections values("&amp;A7&amp;", "&amp;B7&amp;", 0, 'LogUser', 'LogPwd', 'Algo');"</f>
         <v>insert into DBConnections values(1212, 3620, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="14">
         <v>6176</v>
       </c>
     </row>
@@ -6037,7 +7877,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(2444, 9124, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="14">
         <v>8193</v>
       </c>
     </row>
@@ -6063,7 +7903,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(4935, 616, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="14">
         <v>5356</v>
       </c>
     </row>
@@ -6089,7 +7929,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(4948, 8668, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="14">
         <v>956</v>
       </c>
     </row>
@@ -6115,7 +7955,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(5284, 6452, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="14">
         <v>8195</v>
       </c>
     </row>
@@ -6141,7 +7981,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(5731, 7584, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="14">
         <v>6692</v>
       </c>
     </row>
@@ -6167,7 +8007,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(5892, 8196, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U13" s="17">
+      <c r="U13" s="14">
         <v>8588</v>
       </c>
     </row>
@@ -6193,7 +8033,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(5920, 4160, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U14" s="17">
+      <c r="U14" s="14">
         <v>8064</v>
       </c>
     </row>
@@ -6219,7 +8059,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(6307, 6928, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U15" s="17">
+      <c r="U15" s="14">
         <v>6435</v>
       </c>
     </row>
@@ -6245,7 +8085,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(6396, 2440, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="14">
         <v>7476</v>
       </c>
     </row>
@@ -6271,7 +8111,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(6827, 8088, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U17" s="17">
+      <c r="U17" s="14">
         <v>1416</v>
       </c>
     </row>
@@ -6297,7 +8137,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(7360, 1956, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="14">
         <v>7687</v>
       </c>
     </row>
@@ -6323,7 +8163,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(7376, 7196, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U19" s="17">
+      <c r="U19" s="14">
         <v>5212</v>
       </c>
     </row>
@@ -6349,7 +8189,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(7532, 6836, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U20" s="17">
+      <c r="U20" s="14">
         <v>8636</v>
       </c>
     </row>
@@ -6375,7 +8215,7 @@
         <f t="shared" si="2"/>
         <v>insert into DBConnections values(8484, 2920, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
-      <c r="U21" s="17">
+      <c r="U21" s="14">
         <v>8420</v>
       </c>
     </row>
